--- a/experiment/clusters.xlsx
+++ b/experiment/clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/NicoleHuang/OneDrive - Australian National University/COMP8800/diffSimilarTech/evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Freddie/Documents/Monash/project/diffSimilarTech/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EF2370A-B1F7-064A-AEDD-4CE22853E88D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAAD0CAB-CCF9-0B45-B2C0-6443BA6BF08D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4820" yWindow="1380" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiled&amp;interpreted" sheetId="2" r:id="rId1"/>
@@ -28,12 +28,12 @@
     <sheet name="memmove&amp;memcpy" sheetId="15" r:id="rId13"/>
     <sheet name="aes&amp;des" sheetId="16" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="547">
   <si>
     <t>Keywords</t>
   </si>
@@ -2153,6 +2153,12 @@
   <si>
     <t xml:space="preserve">especially in an interpreted-language like php where classes add more overhead than a compiled-language
 </t>
+  </si>
+  <si>
+    <t>bert-12</t>
+  </si>
+  <si>
+    <t>bert-2</t>
   </si>
 </sst>
 </file>
@@ -2375,7 +2381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2447,17 +2453,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2466,6 +2473,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2768,10 +2779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2784,7 +2795,7 @@
     <col min="16" max="16384" width="23.33203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2803,9 +2814,15 @@
       <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2823,9 +2840,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
@@ -2841,9 +2861,12 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
@@ -2859,9 +2882,12 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2877,9 +2903,12 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
@@ -2895,9 +2924,12 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
@@ -2913,9 +2945,12 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
@@ -2931,9 +2966,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
@@ -2949,9 +2987,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
@@ -2967,9 +3008,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
@@ -2985,9 +3029,12 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
@@ -3003,9 +3050,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
@@ -3021,9 +3071,12 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
@@ -3039,9 +3092,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
@@ -3057,9 +3113,12 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
@@ -3075,9 +3134,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
@@ -3093,9 +3155,12 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
@@ -3111,9 +3176,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3129,9 +3197,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="G19" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3149,9 +3220,12 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -3167,9 +3241,12 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="G21" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="26" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3187,9 +3264,12 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -3205,9 +3285,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3225,9 +3308,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -3243,9 +3329,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="27" t="s">
+      <c r="G25" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A26" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3260,9 +3349,12 @@
       <c r="E26" s="23">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>543</v>
       </c>
@@ -3275,9 +3367,12 @@
       <c r="E27" s="23">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="2" t="s">
         <v>544</v>
       </c>
@@ -3289,6 +3384,9 @@
       </c>
       <c r="E28" s="23">
         <v>4</v>
+      </c>
+      <c r="G28" s="33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3306,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3320,7 +3418,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3339,9 +3437,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -3359,9 +3460,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>364</v>
       </c>
@@ -3377,9 +3481,12 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>365</v>
       </c>
@@ -3395,9 +3502,12 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>366</v>
       </c>
@@ -3413,9 +3523,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>367</v>
       </c>
@@ -3431,9 +3544,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>368</v>
       </c>
@@ -3449,9 +3565,12 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>369</v>
       </c>
@@ -3467,9 +3586,12 @@
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>370</v>
       </c>
@@ -3485,9 +3607,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>371</v>
       </c>
@@ -3503,9 +3628,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>372</v>
       </c>
@@ -3521,9 +3649,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>373</v>
       </c>
@@ -3539,9 +3670,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>374</v>
       </c>
@@ -3557,9 +3691,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>375</v>
       </c>
@@ -3575,9 +3712,12 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>376</v>
       </c>
@@ -3593,9 +3733,12 @@
       <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>377</v>
       </c>
@@ -3611,9 +3754,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>378</v>
       </c>
@@ -3629,9 +3775,12 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>379</v>
       </c>
@@ -3647,9 +3796,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>380</v>
       </c>
@@ -3665,9 +3817,12 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>381</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -3685,9 +3840,12 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>383</v>
       </c>
@@ -3703,9 +3861,12 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>384</v>
       </c>
@@ -3721,9 +3882,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>385</v>
       </c>
@@ -3739,9 +3903,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>386</v>
       </c>
@@ -3757,9 +3924,12 @@
       <c r="F24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>387</v>
       </c>
@@ -3775,9 +3945,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -3795,9 +3968,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>389</v>
       </c>
@@ -3813,9 +3989,12 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="21" t="s">
         <v>390</v>
       </c>
@@ -3831,9 +4010,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>391</v>
       </c>
@@ -3849,9 +4031,12 @@
       <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="21" t="s">
         <v>392</v>
       </c>
@@ -3867,9 +4052,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>393</v>
       </c>
@@ -3885,9 +4073,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
         <v>394</v>
       </c>
@@ -3902,6 +4093,9 @@
       </c>
       <c r="F32">
         <v>0</v>
+      </c>
+      <c r="G32" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3916,10 +4110,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3930,7 +4124,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3949,9 +4143,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>395</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -3969,9 +4166,12 @@
       <c r="F2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>397</v>
       </c>
@@ -3987,9 +4187,12 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>398</v>
       </c>
@@ -4005,9 +4208,12 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>399</v>
       </c>
@@ -4023,9 +4229,12 @@
       <c r="F5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>400</v>
       </c>
@@ -4041,9 +4250,12 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>401</v>
       </c>
@@ -4059,9 +4271,12 @@
       <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>402</v>
       </c>
@@ -4077,9 +4292,12 @@
       <c r="F8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>403</v>
       </c>
@@ -4095,9 +4313,12 @@
       <c r="F9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>404</v>
       </c>
@@ -4113,9 +4334,12 @@
       <c r="F10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>405</v>
       </c>
@@ -4131,9 +4355,12 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>406</v>
       </c>
@@ -4149,9 +4376,12 @@
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>407</v>
       </c>
@@ -4167,9 +4397,12 @@
       <c r="F13">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>408</v>
       </c>
@@ -4185,9 +4418,12 @@
       <c r="F14">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="G14" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>409</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -4205,9 +4441,12 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>411</v>
       </c>
@@ -4223,9 +4462,12 @@
       <c r="F16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="G16" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>412</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4243,9 +4485,12 @@
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>414</v>
       </c>
@@ -4261,9 +4506,12 @@
       <c r="F18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="G18" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -4281,9 +4529,12 @@
       <c r="F19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>417</v>
       </c>
@@ -4299,9 +4550,12 @@
       <c r="F20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>418</v>
       </c>
@@ -4317,9 +4571,12 @@
       <c r="F21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>419</v>
       </c>
@@ -4335,9 +4592,12 @@
       <c r="F22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>420</v>
       </c>
@@ -4353,9 +4613,12 @@
       <c r="F23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>421</v>
       </c>
@@ -4371,9 +4634,12 @@
       <c r="F24">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>422</v>
       </c>
@@ -4389,9 +4655,12 @@
       <c r="F25">
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="21" t="s">
         <v>423</v>
       </c>
@@ -4407,9 +4676,12 @@
       <c r="F26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>424</v>
       </c>
@@ -4425,9 +4697,12 @@
       <c r="F27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="G27" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>425</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -4445,9 +4720,12 @@
       <c r="F28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>427</v>
       </c>
@@ -4463,9 +4741,12 @@
       <c r="F29">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="21" t="s">
         <v>428</v>
       </c>
@@ -4481,9 +4762,12 @@
       <c r="F30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27" t="s">
+      <c r="G30" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="26" t="s">
         <v>429</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -4501,9 +4785,12 @@
       <c r="F31">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
         <v>431</v>
       </c>
@@ -4519,9 +4806,12 @@
       <c r="F32">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="29" t="s">
+      <c r="G32" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
         <v>432</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -4539,9 +4829,12 @@
       <c r="F33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="G33" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" s="21" t="s">
         <v>434</v>
       </c>
@@ -4557,9 +4850,12 @@
       <c r="F34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="29" t="s">
+      <c r="G34" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30" t="s">
         <v>435</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4577,9 +4873,12 @@
       <c r="F35">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="G35" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
       <c r="B36" s="21" t="s">
         <v>437</v>
       </c>
@@ -4595,9 +4894,12 @@
       <c r="F36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="G36" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
       <c r="B37" s="21" t="s">
         <v>438</v>
       </c>
@@ -4613,9 +4915,12 @@
       <c r="F37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="G37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
       <c r="B38" s="21" t="s">
         <v>439</v>
       </c>
@@ -4631,9 +4936,12 @@
       <c r="F38">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="29" t="s">
+      <c r="G38" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
         <v>440</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -4651,9 +4959,12 @@
       <c r="F39">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="G39" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" s="21" t="s">
         <v>442</v>
       </c>
@@ -4669,9 +4980,12 @@
       <c r="F40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29" t="s">
+      <c r="G40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -4689,9 +5003,12 @@
       <c r="F41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="G41" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" s="21" t="s">
         <v>444</v>
       </c>
@@ -4707,9 +5024,12 @@
       <c r="F42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="G42" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
       <c r="B43" s="21" t="s">
         <v>445</v>
       </c>
@@ -4725,9 +5045,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="G43" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
       <c r="B44" s="21" t="s">
         <v>446</v>
       </c>
@@ -4743,9 +5066,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="G44" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
       <c r="B45" s="21" t="s">
         <v>447</v>
       </c>
@@ -4761,9 +5087,12 @@
       <c r="F45">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="G45" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
       <c r="B46" s="21" t="s">
         <v>448</v>
       </c>
@@ -4779,9 +5108,12 @@
       <c r="F46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="G46" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
       <c r="B47" s="21" t="s">
         <v>449</v>
       </c>
@@ -4797,9 +5129,12 @@
       <c r="F47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="G47" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" s="21" t="s">
         <v>450</v>
       </c>
@@ -4815,9 +5150,12 @@
       <c r="F48">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="G48" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
       <c r="B49" s="21" t="s">
         <v>451</v>
       </c>
@@ -4833,9 +5171,12 @@
       <c r="F49">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="G49" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
       <c r="B50" s="21" t="s">
         <v>452</v>
       </c>
@@ -4851,9 +5192,12 @@
       <c r="F50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="G50" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
       <c r="B51" s="21" t="s">
         <v>453</v>
       </c>
@@ -4869,9 +5213,12 @@
       <c r="F51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="G51" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
       <c r="B52" s="21" t="s">
         <v>454</v>
       </c>
@@ -4887,9 +5234,12 @@
       <c r="F52">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="G52" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
       <c r="B53" s="21" t="s">
         <v>455</v>
       </c>
@@ -4905,9 +5255,12 @@
       <c r="F53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="G53" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
       <c r="B54" s="21" t="s">
         <v>456</v>
       </c>
@@ -4923,9 +5276,12 @@
       <c r="F54">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="G54" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
       <c r="B55" s="21" t="s">
         <v>457</v>
       </c>
@@ -4941,9 +5297,12 @@
       <c r="F55">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="28"/>
+      <c r="G55" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="27"/>
       <c r="B56" s="21" t="s">
         <v>458</v>
       </c>
@@ -4959,9 +5318,12 @@
       <c r="F56">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="28"/>
+      <c r="G56" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="27"/>
       <c r="B57" s="21" t="s">
         <v>459</v>
       </c>
@@ -4977,9 +5339,12 @@
       <c r="F57">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="28"/>
+      <c r="G57" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="27"/>
       <c r="B58" s="21" t="s">
         <v>460</v>
       </c>
@@ -4995,9 +5360,12 @@
       <c r="F58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="28"/>
+      <c r="G58" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="27"/>
       <c r="B59" s="21" t="s">
         <v>461</v>
       </c>
@@ -5013,9 +5381,12 @@
       <c r="F59">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="28"/>
+      <c r="G59" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="27"/>
       <c r="B60" s="21" t="s">
         <v>462</v>
       </c>
@@ -5031,9 +5402,12 @@
       <c r="F60">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="28"/>
+      <c r="G60" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="27"/>
       <c r="B61" s="21" t="s">
         <v>463</v>
       </c>
@@ -5049,9 +5423,12 @@
       <c r="F61">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="28"/>
+      <c r="G61" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="27"/>
       <c r="B62" s="21" t="s">
         <v>464</v>
       </c>
@@ -5067,9 +5444,12 @@
       <c r="F62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="28"/>
+      <c r="G62" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="27"/>
       <c r="B63" s="21" t="s">
         <v>465</v>
       </c>
@@ -5085,9 +5465,12 @@
       <c r="F63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="28"/>
+      <c r="G63" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="27"/>
       <c r="B64" s="21" t="s">
         <v>466</v>
       </c>
@@ -5103,9 +5486,12 @@
       <c r="F64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="28"/>
+      <c r="G64" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="27"/>
       <c r="B65" s="21" t="s">
         <v>467</v>
       </c>
@@ -5121,9 +5507,12 @@
       <c r="F65">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="28"/>
+      <c r="G65" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="27"/>
       <c r="B66" s="21" t="s">
         <v>468</v>
       </c>
@@ -5139,9 +5528,12 @@
       <c r="F66">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="28"/>
+      <c r="G66" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="27"/>
       <c r="B67" s="21" t="s">
         <v>469</v>
       </c>
@@ -5157,9 +5549,12 @@
       <c r="F67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="28"/>
+      <c r="G67" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="27"/>
       <c r="B68" s="21" t="s">
         <v>470</v>
       </c>
@@ -5175,9 +5570,12 @@
       <c r="F68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="28"/>
+      <c r="G68" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="27"/>
       <c r="B69" s="21" t="s">
         <v>471</v>
       </c>
@@ -5193,9 +5591,12 @@
       <c r="F69">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="28"/>
+      <c r="G69" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="27"/>
       <c r="B70" s="21" t="s">
         <v>472</v>
       </c>
@@ -5211,9 +5612,12 @@
       <c r="F70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="28"/>
+      <c r="G70" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="27"/>
       <c r="B71" s="21" t="s">
         <v>473</v>
       </c>
@@ -5229,9 +5633,12 @@
       <c r="F71">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="28"/>
+      <c r="G71" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="27"/>
       <c r="B72" s="21" t="s">
         <v>474</v>
       </c>
@@ -5247,9 +5654,12 @@
       <c r="F72">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="28"/>
+      <c r="G72" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
       <c r="B73" s="21" t="s">
         <v>475</v>
       </c>
@@ -5264,6 +5674,9 @@
       </c>
       <c r="F73">
         <v>5</v>
+      </c>
+      <c r="G73" s="33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5285,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="B10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5299,7 +5712,7 @@
     <col min="10" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5318,9 +5731,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>476</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5338,9 +5754,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>478</v>
       </c>
@@ -5356,9 +5775,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>479</v>
       </c>
@@ -5374,9 +5796,12 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>480</v>
       </c>
@@ -5392,9 +5817,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>481</v>
       </c>
@@ -5410,9 +5838,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>482</v>
       </c>
@@ -5428,9 +5859,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>483</v>
       </c>
@@ -5446,9 +5880,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>484</v>
       </c>
@@ -5464,9 +5901,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>485</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -5484,9 +5924,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>487</v>
       </c>
@@ -5502,9 +5945,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>488</v>
       </c>
@@ -5520,9 +5966,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>489</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -5540,9 +5989,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>491</v>
       </c>
@@ -5558,9 +6010,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29" t="s">
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>492</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -5578,9 +6033,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>494</v>
       </c>
@@ -5596,9 +6054,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29" t="s">
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -5616,9 +6077,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>496</v>
       </c>
@@ -5634,9 +6098,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>497</v>
       </c>
@@ -5652,9 +6119,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>498</v>
       </c>
@@ -5669,6 +6139,9 @@
       </c>
       <c r="F20">
         <v>2</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5685,10 +6158,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5699,7 +6172,7 @@
     <col min="9" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -5718,9 +6191,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>499</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5738,9 +6214,12 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>501</v>
       </c>
@@ -5756,9 +6235,12 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>502</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -5776,9 +6258,12 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>504</v>
       </c>
@@ -5794,9 +6279,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="26"/>
+      <c r="G5" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>505</v>
       </c>
@@ -5812,9 +6300,12 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>506</v>
       </c>
@@ -5830,9 +6321,12 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>507</v>
       </c>
@@ -5848,9 +6342,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
+      <c r="G8" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>508</v>
       </c>
@@ -5866,9 +6363,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="G9" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>509</v>
       </c>
@@ -5884,9 +6384,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="G10" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>510</v>
       </c>
@@ -5902,9 +6405,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>511</v>
       </c>
@@ -5920,9 +6426,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26"/>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>512</v>
       </c>
@@ -5938,9 +6447,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="G13" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>513</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -5958,9 +6470,12 @@
       <c r="F14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>515</v>
       </c>
@@ -5976,9 +6491,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -5996,9 +6514,12 @@
       <c r="F16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
+      <c r="G16" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>517</v>
       </c>
@@ -6014,9 +6535,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>518</v>
       </c>
@@ -6032,9 +6556,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="G18" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>519</v>
       </c>
@@ -6050,9 +6577,12 @@
       <c r="F19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="G19" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>520</v>
       </c>
@@ -6068,9 +6598,12 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>521</v>
       </c>
@@ -6086,9 +6619,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>522</v>
       </c>
@@ -6103,6 +6639,9 @@
       </c>
       <c r="F22">
         <v>2</v>
+      </c>
+      <c r="G22" s="25">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -6118,10 +6657,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="B6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6132,7 +6671,7 @@
     <col min="8" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6151,9 +6690,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>523</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6171,9 +6713,12 @@
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>525</v>
       </c>
@@ -6189,9 +6734,12 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>526</v>
       </c>
@@ -6207,9 +6755,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="G4" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
         <v>527</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -6227,9 +6778,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>529</v>
       </c>
@@ -6245,9 +6799,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>530</v>
       </c>
@@ -6263,9 +6820,12 @@
       <c r="F7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>531</v>
       </c>
@@ -6281,9 +6841,12 @@
       <c r="F8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>532</v>
       </c>
@@ -6299,9 +6862,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="G9" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>533</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -6319,9 +6885,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>535</v>
       </c>
@@ -6337,9 +6906,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29" t="s">
+      <c r="G11" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -6357,9 +6929,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>537</v>
       </c>
@@ -6375,9 +6950,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>538</v>
       </c>
@@ -6393,9 +6971,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>539</v>
       </c>
@@ -6411,9 +6992,12 @@
       <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>540</v>
       </c>
@@ -6429,9 +7013,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>541</v>
       </c>
@@ -6446,6 +7033,9 @@
       </c>
       <c r="F17">
         <v>2</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6461,10 +7051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6473,7 +7063,7 @@
     <col min="2" max="2" width="106.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6492,9 +7082,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="G1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6512,9 +7105,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="26"/>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
@@ -6530,9 +7126,12 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6550,9 +7149,12 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -6568,9 +7170,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -6588,9 +7193,12 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>43</v>
       </c>
@@ -6606,9 +7214,12 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -6624,9 +7235,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -6644,9 +7258,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
@@ -6662,9 +7279,12 @@
       <c r="F10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>47</v>
       </c>
@@ -6680,9 +7300,12 @@
       <c r="F11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
+      <c r="G11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -6697,6 +7320,9 @@
       </c>
       <c r="F12">
         <v>3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6713,10 +7339,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="B21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6727,7 +7353,7 @@
     <col min="12" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6746,9 +7372,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="23" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6766,9 +7395,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>51</v>
       </c>
@@ -6784,9 +7416,12 @@
       <c r="F3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>52</v>
       </c>
@@ -6802,9 +7437,12 @@
       <c r="F4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
@@ -6820,9 +7458,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
@@ -6838,9 +7479,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
@@ -6856,9 +7500,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
@@ -6874,9 +7521,12 @@
       <c r="F8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
@@ -6892,9 +7542,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
@@ -6910,9 +7563,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
@@ -6928,9 +7584,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
@@ -6946,9 +7605,12 @@
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
@@ -6964,9 +7626,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
@@ -6982,9 +7647,12 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
@@ -7000,9 +7668,12 @@
       <c r="F15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
@@ -7018,9 +7689,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
@@ -7036,9 +7710,12 @@
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
@@ -7054,9 +7731,12 @@
       <c r="F18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
@@ -7072,9 +7752,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>68</v>
       </c>
@@ -7090,9 +7773,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -7108,9 +7794,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>70</v>
       </c>
@@ -7126,9 +7815,12 @@
       <c r="F22">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>71</v>
       </c>
@@ -7144,9 +7836,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>72</v>
       </c>
@@ -7162,9 +7857,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>73</v>
       </c>
@@ -7180,9 +7878,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="21" t="s">
         <v>74</v>
       </c>
@@ -7198,9 +7899,12 @@
       <c r="F26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
@@ -7216,9 +7920,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -7236,9 +7943,12 @@
       <c r="F28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7254,9 +7964,12 @@
       <c r="F29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27" t="s">
+      <c r="G29" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7274,9 +7987,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>81</v>
       </c>
@@ -7292,9 +8008,12 @@
       <c r="F31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
@@ -7310,9 +8029,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
+      <c r="G32" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="26" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -7330,9 +8052,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="G33" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" s="21" t="s">
         <v>85</v>
       </c>
@@ -7348,9 +8073,12 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
       <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
@@ -7366,9 +8094,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="G35" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
       <c r="B36" s="21" t="s">
         <v>87</v>
       </c>
@@ -7384,9 +8115,12 @@
       <c r="F36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="G36" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
@@ -7402,9 +8136,12 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27" t="s">
+      <c r="G37" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="26" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -7422,9 +8159,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="G38" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
       <c r="B39" s="21" t="s">
         <v>90</v>
       </c>
@@ -7440,9 +8180,12 @@
       <c r="F39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="G39" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
@@ -7457,6 +8200,9 @@
       </c>
       <c r="F40">
         <v>1</v>
+      </c>
+      <c r="G40" s="33">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -7474,10 +8220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7488,7 +8234,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7507,9 +8253,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -7527,9 +8276,12 @@
       <c r="F2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>94</v>
       </c>
@@ -7545,9 +8297,12 @@
       <c r="F3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="G3" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -7565,9 +8320,12 @@
       <c r="F4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>97</v>
       </c>
@@ -7583,9 +8341,12 @@
       <c r="F5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>98</v>
       </c>
@@ -7601,9 +8362,12 @@
       <c r="F6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="G6" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -7621,9 +8385,12 @@
       <c r="F7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>101</v>
       </c>
@@ -7639,9 +8406,12 @@
       <c r="F8">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>102</v>
       </c>
@@ -7657,9 +8427,12 @@
       <c r="F9">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>103</v>
       </c>
@@ -7675,9 +8448,12 @@
       <c r="F10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>104</v>
       </c>
@@ -7693,9 +8469,12 @@
       <c r="F11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>105</v>
       </c>
@@ -7711,9 +8490,12 @@
       <c r="F12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>106</v>
       </c>
@@ -7729,9 +8511,12 @@
       <c r="F13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>107</v>
       </c>
@@ -7747,9 +8532,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>108</v>
       </c>
@@ -7765,9 +8553,12 @@
       <c r="F15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>109</v>
       </c>
@@ -7783,9 +8574,12 @@
       <c r="F16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>110</v>
       </c>
@@ -7801,9 +8595,12 @@
       <c r="F17">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>111</v>
       </c>
@@ -7819,9 +8616,12 @@
       <c r="F18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>112</v>
       </c>
@@ -7837,9 +8637,12 @@
       <c r="F19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>113</v>
       </c>
@@ -7855,9 +8658,12 @@
       <c r="F20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>114</v>
       </c>
@@ -7873,9 +8679,12 @@
       <c r="F21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>115</v>
       </c>
@@ -7891,9 +8700,12 @@
       <c r="F22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>116</v>
       </c>
@@ -7909,9 +8721,12 @@
       <c r="F23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
+      <c r="G23" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="30" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -7929,9 +8744,12 @@
       <c r="F24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>119</v>
       </c>
@@ -7947,9 +8765,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="29" t="s">
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="30" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -7967,9 +8788,12 @@
       <c r="F26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>122</v>
       </c>
@@ -7985,9 +8809,12 @@
       <c r="F27">
         <v>6</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="29" t="s">
+      <c r="G27" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="30" t="s">
         <v>123</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -8005,9 +8832,12 @@
       <c r="F28">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>125</v>
       </c>
@@ -8023,9 +8853,12 @@
       <c r="F29">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="G29" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -8043,9 +8876,12 @@
       <c r="F30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>127</v>
       </c>
@@ -8061,9 +8897,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
         <v>128</v>
       </c>
@@ -8079,9 +8918,12 @@
       <c r="F32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="G32" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
       <c r="B33" s="21" t="s">
         <v>129</v>
       </c>
@@ -8097,9 +8939,12 @@
       <c r="F33">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="G33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" s="21" t="s">
         <v>130</v>
       </c>
@@ -8115,9 +8960,12 @@
       <c r="F34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="G34" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
       <c r="B35" s="21" t="s">
         <v>131</v>
       </c>
@@ -8133,9 +8981,12 @@
       <c r="F35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
+      <c r="G35" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="27"/>
       <c r="B36" s="21" t="s">
         <v>132</v>
       </c>
@@ -8151,9 +9002,12 @@
       <c r="F36">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="G36" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
       <c r="B37" s="21" t="s">
         <v>133</v>
       </c>
@@ -8169,9 +9023,12 @@
       <c r="F37">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="G37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
       <c r="B38" s="21" t="s">
         <v>134</v>
       </c>
@@ -8187,9 +9044,12 @@
       <c r="F38">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="G38" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
       <c r="B39" s="21" t="s">
         <v>135</v>
       </c>
@@ -8205,9 +9065,12 @@
       <c r="F39">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="G39" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" s="21" t="s">
         <v>136</v>
       </c>
@@ -8223,9 +9086,12 @@
       <c r="F40">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="G40" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
       <c r="B41" s="21" t="s">
         <v>137</v>
       </c>
@@ -8241,9 +9107,12 @@
       <c r="F41">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="G41" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" s="21" t="s">
         <v>138</v>
       </c>
@@ -8259,9 +9128,12 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="G42" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
       <c r="B43" s="21" t="s">
         <v>139</v>
       </c>
@@ -8277,9 +9149,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="G43" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
       <c r="B44" s="21" t="s">
         <v>140</v>
       </c>
@@ -8295,9 +9170,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="G44" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -8313,9 +9191,12 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="G45" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
       <c r="B46" s="21" t="s">
         <v>142</v>
       </c>
@@ -8331,9 +9212,12 @@
       <c r="F46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="G46" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
       <c r="B47" s="21" t="s">
         <v>143</v>
       </c>
@@ -8349,9 +9233,12 @@
       <c r="F47">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="G47" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" s="21" t="s">
         <v>144</v>
       </c>
@@ -8366,6 +9253,9 @@
       </c>
       <c r="F48">
         <v>5</v>
+      </c>
+      <c r="G48" s="33">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -8384,10 +9274,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8398,7 +9288,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8417,9 +9307,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -8437,9 +9330,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>147</v>
       </c>
@@ -8455,9 +9351,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>148</v>
       </c>
@@ -8473,9 +9372,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>149</v>
       </c>
@@ -8491,9 +9393,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>150</v>
       </c>
@@ -8509,9 +9414,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>151</v>
       </c>
@@ -8527,9 +9435,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>152</v>
       </c>
@@ -8545,9 +9456,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>153</v>
       </c>
@@ -8563,9 +9477,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>154</v>
       </c>
@@ -8581,9 +9498,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>155</v>
       </c>
@@ -8599,9 +9519,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>156</v>
       </c>
@@ -8617,9 +9540,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>157</v>
       </c>
@@ -8635,9 +9561,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>158</v>
       </c>
@@ -8653,9 +9582,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>159</v>
       </c>
@@ -8671,9 +9603,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>160</v>
       </c>
@@ -8689,9 +9624,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>161</v>
       </c>
@@ -8707,9 +9645,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>162</v>
       </c>
@@ -8725,9 +9666,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>163</v>
       </c>
@@ -8743,9 +9687,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>164</v>
       </c>
@@ -8761,9 +9708,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
@@ -8779,9 +9729,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>166</v>
       </c>
@@ -8797,9 +9750,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>167</v>
       </c>
@@ -8815,9 +9771,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>168</v>
       </c>
@@ -8833,9 +9792,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>169</v>
       </c>
@@ -8851,9 +9813,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="21" t="s">
         <v>170</v>
       </c>
@@ -8869,9 +9834,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
       </c>
@@ -8887,9 +9855,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="21" t="s">
         <v>172</v>
       </c>
@@ -8905,9 +9876,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>173</v>
       </c>
@@ -8923,9 +9897,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="21" t="s">
         <v>174</v>
       </c>
@@ -8941,9 +9918,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>175</v>
       </c>
@@ -8959,9 +9939,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
         <v>176</v>
       </c>
@@ -8977,9 +9960,12 @@
       <c r="F32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="G32" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
       <c r="B33" s="21" t="s">
         <v>177</v>
       </c>
@@ -8995,9 +9981,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="G33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" s="21" t="s">
         <v>178</v>
       </c>
@@ -9013,9 +10002,12 @@
       <c r="F34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
       <c r="B35" s="21" t="s">
         <v>179</v>
       </c>
@@ -9031,9 +10023,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="G35" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -9051,9 +10046,12 @@
       <c r="F36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="G36" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
       <c r="B37" s="21" t="s">
         <v>182</v>
       </c>
@@ -9069,9 +10067,12 @@
       <c r="F37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="29" t="s">
+      <c r="G37" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -9089,9 +10090,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="G38" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
       <c r="B39" s="21" t="s">
         <v>184</v>
       </c>
@@ -9107,9 +10111,12 @@
       <c r="F39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="G39" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" s="21" t="s">
         <v>185</v>
       </c>
@@ -9125,9 +10132,12 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="G40" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
       <c r="B41" s="21" t="s">
         <v>186</v>
       </c>
@@ -9143,9 +10153,12 @@
       <c r="F41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="G41" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" s="21" t="s">
         <v>187</v>
       </c>
@@ -9161,9 +10174,12 @@
       <c r="F42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="G42" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
       <c r="B43" s="21" t="s">
         <v>188</v>
       </c>
@@ -9179,9 +10195,12 @@
       <c r="F43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="G43" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
       <c r="B44" s="21" t="s">
         <v>189</v>
       </c>
@@ -9197,9 +10216,12 @@
       <c r="F44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
+      <c r="G44" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="27"/>
       <c r="B45" s="21" t="s">
         <v>190</v>
       </c>
@@ -9215,9 +10237,12 @@
       <c r="F45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="G45" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
       <c r="B46" s="21" t="s">
         <v>191</v>
       </c>
@@ -9233,9 +10258,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="G46" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="27"/>
       <c r="B47" s="21" t="s">
         <v>192</v>
       </c>
@@ -9251,9 +10279,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="G47" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" s="21" t="s">
         <v>193</v>
       </c>
@@ -9269,9 +10300,12 @@
       <c r="F48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="G48" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
       <c r="B49" s="21" t="s">
         <v>194</v>
       </c>
@@ -9287,9 +10321,12 @@
       <c r="F49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="G49" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
       <c r="B50" s="21" t="s">
         <v>195</v>
       </c>
@@ -9305,9 +10342,12 @@
       <c r="F50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="G50" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
       <c r="B51" s="21" t="s">
         <v>196</v>
       </c>
@@ -9323,9 +10363,12 @@
       <c r="F51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="G51" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
       <c r="B52" s="21" t="s">
         <v>197</v>
       </c>
@@ -9340,6 +10383,9 @@
       </c>
       <c r="F52">
         <v>1</v>
+      </c>
+      <c r="G52" s="33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -9354,10 +10400,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="139" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="B26" zoomScale="139" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9368,7 +10414,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -9387,9 +10433,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -9407,9 +10456,12 @@
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31"/>
+      <c r="G2" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="32"/>
       <c r="B3" s="21" t="s">
         <v>200</v>
       </c>
@@ -9425,9 +10477,12 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31"/>
+      <c r="G3" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
       <c r="B4" s="21" t="s">
         <v>201</v>
       </c>
@@ -9443,9 +10498,12 @@
       <c r="F4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="G4" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -9463,9 +10521,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31"/>
+      <c r="G5" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="32"/>
       <c r="B6" s="21" t="s">
         <v>204</v>
       </c>
@@ -9481,9 +10542,12 @@
       <c r="F6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="32"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
       </c>
@@ -9499,9 +10563,12 @@
       <c r="F7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+      <c r="G7" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -9519,9 +10586,12 @@
       <c r="F8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="G8" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="32"/>
       <c r="B9" s="21" t="s">
         <v>208</v>
       </c>
@@ -9537,9 +10607,12 @@
       <c r="F9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="G9" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="32"/>
       <c r="B10" s="21" t="s">
         <v>209</v>
       </c>
@@ -9555,9 +10628,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="G10" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="32"/>
       <c r="B11" s="21" t="s">
         <v>210</v>
       </c>
@@ -9573,9 +10649,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="G11" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>211</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -9593,9 +10672,12 @@
       <c r="F12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31"/>
+      <c r="G12" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="32"/>
       <c r="B13" s="21" t="s">
         <v>213</v>
       </c>
@@ -9611,9 +10693,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="G13" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -9631,9 +10716,12 @@
       <c r="F14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="32"/>
       <c r="B15" s="21" t="s">
         <v>216</v>
       </c>
@@ -9649,9 +10737,12 @@
       <c r="F15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
+      <c r="G15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="32"/>
       <c r="B16" s="21" t="s">
         <v>217</v>
       </c>
@@ -9667,9 +10758,12 @@
       <c r="F16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -9687,9 +10781,12 @@
       <c r="F17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="G17" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="32"/>
       <c r="B18" s="21" t="s">
         <v>219</v>
       </c>
@@ -9705,9 +10802,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31"/>
+      <c r="G18" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="32"/>
       <c r="B19" s="21" t="s">
         <v>220</v>
       </c>
@@ -9723,9 +10823,12 @@
       <c r="F19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
+      <c r="G19" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="32"/>
       <c r="B20" s="21" t="s">
         <v>221</v>
       </c>
@@ -9741,9 +10844,12 @@
       <c r="F20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
+      <c r="G20" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="32"/>
       <c r="B21" s="21" t="s">
         <v>222</v>
       </c>
@@ -9759,9 +10865,12 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
+      <c r="G21" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32"/>
       <c r="B22" s="21" t="s">
         <v>223</v>
       </c>
@@ -9777,9 +10886,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
+      <c r="G22" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="32"/>
       <c r="B23" s="21" t="s">
         <v>224</v>
       </c>
@@ -9795,9 +10907,12 @@
       <c r="F23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31"/>
+      <c r="G23" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32"/>
       <c r="B24" s="21" t="s">
         <v>225</v>
       </c>
@@ -9813,9 +10928,12 @@
       <c r="F24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="31"/>
+      <c r="G24" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="32"/>
       <c r="B25" s="21" t="s">
         <v>226</v>
       </c>
@@ -9831,9 +10949,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="31"/>
+      <c r="G25" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="32"/>
       <c r="B26" s="21" t="s">
         <v>227</v>
       </c>
@@ -9849,9 +10970,12 @@
       <c r="F26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="31"/>
+      <c r="G26" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="32"/>
       <c r="B27" s="21" t="s">
         <v>228</v>
       </c>
@@ -9867,9 +10991,12 @@
       <c r="F27">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="31"/>
+      <c r="G27" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="32"/>
       <c r="B28" s="21" t="s">
         <v>229</v>
       </c>
@@ -9885,9 +11012,12 @@
       <c r="F28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="31"/>
+      <c r="G28" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="32"/>
       <c r="B29" s="21" t="s">
         <v>230</v>
       </c>
@@ -9903,9 +11033,12 @@
       <c r="F29">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31"/>
+      <c r="G29" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="32"/>
       <c r="B30" s="21" t="s">
         <v>231</v>
       </c>
@@ -9921,9 +11054,12 @@
       <c r="F30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="31"/>
+      <c r="G30" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="32"/>
       <c r="B31" s="21" t="s">
         <v>232</v>
       </c>
@@ -9939,9 +11075,12 @@
       <c r="F31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
+      <c r="G31" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="32"/>
       <c r="B32" s="21" t="s">
         <v>233</v>
       </c>
@@ -9957,9 +11096,12 @@
       <c r="F32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
+      <c r="G32" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="32"/>
       <c r="B33" s="21" t="s">
         <v>234</v>
       </c>
@@ -9975,9 +11117,12 @@
       <c r="F33">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
+      <c r="G33" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32"/>
       <c r="B34" s="21" t="s">
         <v>235</v>
       </c>
@@ -9993,9 +11138,12 @@
       <c r="F34">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="31"/>
+      <c r="G34" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="32"/>
       <c r="B35" s="21" t="s">
         <v>236</v>
       </c>
@@ -10011,9 +11159,12 @@
       <c r="F35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="31"/>
+      <c r="G35" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="32"/>
       <c r="B36" s="21" t="s">
         <v>237</v>
       </c>
@@ -10027,6 +11178,9 @@
         <v>1</v>
       </c>
       <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" s="33">
         <v>4</v>
       </c>
     </row>
@@ -10045,10 +11199,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="B46" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10059,7 +11213,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -10078,9 +11232,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>238</v>
       </c>
       <c r="B2" t="s">
@@ -10098,9 +11255,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>240</v>
       </c>
@@ -10116,9 +11276,12 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>241</v>
       </c>
@@ -10134,9 +11297,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>242</v>
       </c>
@@ -10152,9 +11318,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>243</v>
       </c>
@@ -10170,9 +11339,12 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>244</v>
       </c>
@@ -10188,9 +11360,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" t="s">
         <v>245</v>
       </c>
@@ -10206,9 +11381,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" t="s">
         <v>246</v>
       </c>
@@ -10224,9 +11402,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" t="s">
         <v>247</v>
       </c>
@@ -10242,9 +11423,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" t="s">
         <v>248</v>
       </c>
@@ -10260,9 +11444,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
@@ -10278,9 +11465,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
         <v>250</v>
       </c>
@@ -10296,9 +11486,12 @@
       <c r="F13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
         <v>251</v>
       </c>
@@ -10314,9 +11507,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" t="s">
         <v>252</v>
       </c>
@@ -10332,9 +11528,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" t="s">
         <v>253</v>
       </c>
@@ -10350,9 +11549,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" t="s">
         <v>254</v>
       </c>
@@ -10368,9 +11570,12 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" t="s">
         <v>255</v>
       </c>
@@ -10386,9 +11591,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" t="s">
         <v>256</v>
       </c>
@@ -10404,9 +11612,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" t="s">
         <v>257</v>
       </c>
@@ -10422,9 +11633,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" t="s">
         <v>258</v>
       </c>
@@ -10440,9 +11654,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" t="s">
         <v>259</v>
       </c>
@@ -10458,9 +11675,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" t="s">
         <v>260</v>
       </c>
@@ -10476,9 +11696,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" t="s">
         <v>261</v>
       </c>
@@ -10494,9 +11717,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" t="s">
         <v>262</v>
       </c>
@@ -10512,9 +11738,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" t="s">
         <v>263</v>
       </c>
@@ -10530,9 +11759,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" t="s">
         <v>264</v>
       </c>
@@ -10548,9 +11780,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" t="s">
         <v>265</v>
       </c>
@@ -10566,9 +11801,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" t="s">
         <v>266</v>
       </c>
@@ -10584,9 +11822,12 @@
       <c r="F29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" t="s">
         <v>267</v>
       </c>
@@ -10602,9 +11843,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" t="s">
         <v>268</v>
       </c>
@@ -10620,9 +11864,12 @@
       <c r="F31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" t="s">
         <v>269</v>
       </c>
@@ -10638,9 +11885,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="G32" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
       <c r="B33" t="s">
         <v>270</v>
       </c>
@@ -10656,9 +11906,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
+      <c r="G33" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="27"/>
       <c r="B34" t="s">
         <v>271</v>
       </c>
@@ -10674,9 +11927,12 @@
       <c r="F34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
+      <c r="G34" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="27"/>
       <c r="B35" t="s">
         <v>272</v>
       </c>
@@ -10692,9 +11948,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="29" t="s">
+      <c r="G35" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30" t="s">
         <v>273</v>
       </c>
       <c r="B36" t="s">
@@ -10712,9 +11971,12 @@
       <c r="F36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
+      <c r="G36" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="27"/>
       <c r="B37" t="s">
         <v>275</v>
       </c>
@@ -10730,9 +11992,12 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
+      <c r="G37" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="27"/>
       <c r="B38" t="s">
         <v>276</v>
       </c>
@@ -10748,9 +12013,12 @@
       <c r="F38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
+      <c r="G38" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="27"/>
       <c r="B39" t="s">
         <v>277</v>
       </c>
@@ -10766,9 +12034,12 @@
       <c r="F39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
+      <c r="G39" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="27"/>
       <c r="B40" t="s">
         <v>278</v>
       </c>
@@ -10784,9 +12055,12 @@
       <c r="F40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
+      <c r="G40" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="27"/>
       <c r="B41" t="s">
         <v>279</v>
       </c>
@@ -10802,9 +12076,12 @@
       <c r="F41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
+      <c r="G41" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="27"/>
       <c r="B42" t="s">
         <v>280</v>
       </c>
@@ -10820,9 +12097,12 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
+      <c r="G42" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="27"/>
       <c r="B43" t="s">
         <v>281</v>
       </c>
@@ -10838,9 +12118,12 @@
       <c r="F43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
+      <c r="G43" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="27"/>
       <c r="B44" t="s">
         <v>282</v>
       </c>
@@ -10856,9 +12139,12 @@
       <c r="F44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
+      <c r="G44" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="30" t="s">
         <v>283</v>
       </c>
       <c r="B45" t="s">
@@ -10876,9 +12162,12 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
+      <c r="G45" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="27"/>
       <c r="B46" t="s">
         <v>285</v>
       </c>
@@ -10894,9 +12183,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="29" t="s">
+      <c r="G46" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
@@ -10914,9 +12206,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
+      <c r="G47" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="27"/>
       <c r="B48" t="s">
         <v>287</v>
       </c>
@@ -10932,9 +12227,12 @@
       <c r="F48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
+      <c r="G48" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="27"/>
       <c r="B49" t="s">
         <v>288</v>
       </c>
@@ -10950,9 +12248,12 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
+      <c r="G49" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="27"/>
       <c r="B50" t="s">
         <v>289</v>
       </c>
@@ -10968,9 +12269,12 @@
       <c r="F50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="G50" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="27"/>
       <c r="B51" t="s">
         <v>290</v>
       </c>
@@ -10986,9 +12290,12 @@
       <c r="F51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="28"/>
+      <c r="G51" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="27"/>
       <c r="B52" t="s">
         <v>291</v>
       </c>
@@ -11004,9 +12311,12 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28"/>
+      <c r="G52" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="27"/>
       <c r="B53" t="s">
         <v>292</v>
       </c>
@@ -11022,9 +12332,12 @@
       <c r="F53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="28"/>
+      <c r="G53" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="27"/>
       <c r="B54" t="s">
         <v>293</v>
       </c>
@@ -11040,9 +12353,12 @@
       <c r="F54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="28"/>
+      <c r="G54" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="27"/>
       <c r="B55" t="s">
         <v>294</v>
       </c>
@@ -11057,6 +12373,9 @@
       </c>
       <c r="F55">
         <v>0</v>
+      </c>
+      <c r="G55" s="33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -11072,10 +12391,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="B21" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11086,7 +12405,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11105,9 +12424,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>295</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -11125,9 +12447,12 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>297</v>
       </c>
@@ -11143,9 +12468,12 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>298</v>
       </c>
@@ -11161,9 +12489,12 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>299</v>
       </c>
@@ -11179,9 +12510,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>300</v>
       </c>
@@ -11197,9 +12531,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -11217,9 +12554,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>303</v>
       </c>
@@ -11235,9 +12575,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>304</v>
       </c>
@@ -11253,9 +12596,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="G9" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -11273,9 +12619,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>307</v>
       </c>
@@ -11291,9 +12640,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>308</v>
       </c>
@@ -11309,9 +12661,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>309</v>
       </c>
@@ -11327,9 +12682,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
       <c r="B14" s="21" t="s">
         <v>310</v>
       </c>
@@ -11345,9 +12703,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>311</v>
       </c>
@@ -11363,9 +12724,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
+      <c r="G15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
       <c r="B16" s="21" t="s">
         <v>312</v>
       </c>
@@ -11381,9 +12745,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>313</v>
       </c>
@@ -11399,9 +12766,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>314</v>
       </c>
@@ -11417,9 +12787,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>315</v>
       </c>
@@ -11435,9 +12808,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>316</v>
       </c>
@@ -11453,9 +12829,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>317</v>
       </c>
@@ -11471,9 +12850,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>318</v>
       </c>
@@ -11489,9 +12871,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>319</v>
       </c>
@@ -11507,9 +12892,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>320</v>
       </c>
@@ -11525,9 +12913,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>321</v>
       </c>
@@ -11543,9 +12934,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="21" t="s">
         <v>322</v>
       </c>
@@ -11561,9 +12955,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>323</v>
       </c>
@@ -11579,9 +12976,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="21" t="s">
         <v>324</v>
       </c>
@@ -11597,9 +12997,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>325</v>
       </c>
@@ -11615,9 +13018,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="29" t="s">
+      <c r="G29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -11635,9 +13041,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>327</v>
       </c>
@@ -11653,9 +13062,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
+      <c r="G31" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27"/>
       <c r="B32" s="21" t="s">
         <v>328</v>
       </c>
@@ -11671,9 +13083,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
+      <c r="G32" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="27"/>
       <c r="B33" s="21" t="s">
         <v>329</v>
       </c>
@@ -11687,6 +13102,9 @@
         <v>3</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="33">
         <v>1</v>
       </c>
     </row>
@@ -11703,10 +13121,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A17" zoomScale="116" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11717,7 +13135,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11736,9 +13154,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="G1" s="34" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -11756,9 +13177,12 @@
       <c r="F2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
+      <c r="G2" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="21" t="s">
         <v>332</v>
       </c>
@@ -11774,9 +13198,12 @@
       <c r="F3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
+      <c r="G3" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27"/>
       <c r="B4" s="21" t="s">
         <v>333</v>
       </c>
@@ -11792,9 +13219,12 @@
       <c r="F4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27"/>
       <c r="B5" s="21" t="s">
         <v>334</v>
       </c>
@@ -11810,9 +13240,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
+      <c r="G5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="27"/>
       <c r="B6" s="21" t="s">
         <v>335</v>
       </c>
@@ -11828,9 +13261,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="G6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
       <c r="B7" s="21" t="s">
         <v>336</v>
       </c>
@@ -11846,9 +13282,12 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="G7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
       <c r="B8" s="21" t="s">
         <v>337</v>
       </c>
@@ -11864,9 +13303,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="G8" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
       <c r="B9" s="21" t="s">
         <v>338</v>
       </c>
@@ -11882,9 +13324,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="G9" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
       <c r="B10" s="21" t="s">
         <v>339</v>
       </c>
@@ -11900,9 +13345,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="G10" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
       <c r="B11" s="21" t="s">
         <v>340</v>
       </c>
@@ -11918,9 +13366,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="G11" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
       <c r="B12" s="21" t="s">
         <v>341</v>
       </c>
@@ -11936,9 +13387,12 @@
       <c r="F12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
+      <c r="G12" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
       <c r="B13" s="21" t="s">
         <v>342</v>
       </c>
@@ -11954,9 +13408,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29" t="s">
+      <c r="G13" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>343</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -11974,9 +13431,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
+      <c r="G14" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
       <c r="B15" s="21" t="s">
         <v>345</v>
       </c>
@@ -11992,9 +13452,12 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29" t="s">
+      <c r="G15" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -12012,9 +13475,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
+      <c r="G16" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
       <c r="B17" s="21" t="s">
         <v>347</v>
       </c>
@@ -12030,9 +13496,12 @@
       <c r="F17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
+      <c r="G17" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
       <c r="B18" s="21" t="s">
         <v>348</v>
       </c>
@@ -12048,9 +13517,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
+      <c r="G18" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
       <c r="B19" s="21" t="s">
         <v>349</v>
       </c>
@@ -12066,9 +13538,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
+      <c r="G19" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="27"/>
       <c r="B20" s="21" t="s">
         <v>350</v>
       </c>
@@ -12084,9 +13559,12 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
+      <c r="G20" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
       <c r="B21" s="21" t="s">
         <v>351</v>
       </c>
@@ -12102,9 +13580,12 @@
       <c r="F21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
+      <c r="G21" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
       <c r="B22" s="21" t="s">
         <v>352</v>
       </c>
@@ -12120,9 +13601,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
+      <c r="G22" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
       <c r="B23" s="21" t="s">
         <v>353</v>
       </c>
@@ -12138,9 +13622,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
+      <c r="G23" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
       <c r="B24" s="21" t="s">
         <v>354</v>
       </c>
@@ -12156,9 +13643,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
+      <c r="G24" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
       <c r="B25" s="21" t="s">
         <v>355</v>
       </c>
@@ -12174,9 +13664,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
+      <c r="G25" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
       <c r="B26" s="21" t="s">
         <v>356</v>
       </c>
@@ -12192,9 +13685,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
+      <c r="G26" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27"/>
       <c r="B27" s="21" t="s">
         <v>357</v>
       </c>
@@ -12210,9 +13706,12 @@
       <c r="F27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
+      <c r="G27" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
       <c r="B28" s="21" t="s">
         <v>358</v>
       </c>
@@ -12228,9 +13727,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
+      <c r="G28" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="21" t="s">
         <v>359</v>
       </c>
@@ -12246,9 +13748,12 @@
       <c r="F29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
+      <c r="G29" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="21" t="s">
         <v>360</v>
       </c>
@@ -12264,9 +13769,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
+      <c r="G30" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="21" t="s">
         <v>361</v>
       </c>
@@ -12281,6 +13789,9 @@
       </c>
       <c r="F31">
         <v>0</v>
+      </c>
+      <c r="G31" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/clusters.xlsx
+++ b/experiment/clusters.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Freddie/Documents/Monash/project/diffSimilarTech/experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EAAD0CAB-CCF9-0B45-B2C0-6443BA6BF08D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61F43F-33EB-074E-9CC8-3C6B2CC02F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="1380" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1380" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="compiled&amp;interpreted" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="546">
   <si>
     <t>Keywords</t>
   </si>
@@ -2156,9 +2156,6 @@
   </si>
   <si>
     <t>bert-12</t>
-  </si>
-  <si>
-    <t>bert-2</t>
   </si>
 </sst>
 </file>
@@ -2454,6 +2451,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,10 +2474,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2781,8 +2778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="23.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2795,7 +2792,7 @@
     <col min="16" max="16384" width="23.33203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2814,15 +2811,10 @@
       <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>546</v>
-      </c>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -2840,12 +2832,9 @@
       <c r="F2">
         <v>0</v>
       </c>
-      <c r="G2" s="23">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
@@ -2861,12 +2850,9 @@
       <c r="F3">
         <v>0</v>
       </c>
-      <c r="G3" s="23">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
@@ -2882,12 +2868,9 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>11</v>
       </c>
@@ -2903,12 +2886,10 @@
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5" s="33">
-        <v>1</v>
-      </c>
+      <c r="G5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>12</v>
       </c>
@@ -2924,12 +2905,10 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="33">
-        <v>0</v>
-      </c>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
@@ -2945,12 +2924,10 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="33">
-        <v>2</v>
-      </c>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>14</v>
       </c>
@@ -2966,12 +2943,10 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="33">
-        <v>2</v>
-      </c>
+      <c r="G8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>15</v>
       </c>
@@ -2987,12 +2962,10 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
+      <c r="G9" s="26"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>16</v>
       </c>
@@ -3008,12 +2981,10 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="33">
-        <v>1</v>
-      </c>
+      <c r="G10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
@@ -3029,12 +3000,10 @@
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11" s="33">
-        <v>1</v>
-      </c>
+      <c r="G11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>18</v>
       </c>
@@ -3050,12 +3019,10 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="33">
-        <v>1</v>
-      </c>
+      <c r="G12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>19</v>
       </c>
@@ -3071,12 +3038,10 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="33">
-        <v>4</v>
-      </c>
+      <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
@@ -3092,12 +3057,10 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
+      <c r="G14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
@@ -3113,12 +3076,10 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="33">
-        <v>4</v>
-      </c>
+      <c r="G15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>22</v>
       </c>
@@ -3134,12 +3095,10 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="33">
-        <v>2</v>
-      </c>
+      <c r="G16" s="26"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
@@ -3155,12 +3114,10 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="33">
-        <v>3</v>
-      </c>
+      <c r="G17" s="26"/>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>24</v>
       </c>
@@ -3176,12 +3133,10 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="33">
-        <v>4</v>
-      </c>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -3197,12 +3152,10 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="33">
-        <v>4</v>
-      </c>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="28" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3220,12 +3173,10 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="33">
-        <v>0</v>
-      </c>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="2" t="s">
         <v>28</v>
       </c>
@@ -3241,12 +3192,10 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="33">
-        <v>2</v>
-      </c>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="28" t="s">
         <v>29</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3264,12 +3213,10 @@
       <c r="F22">
         <v>0</v>
       </c>
-      <c r="G22" s="33">
-        <v>3</v>
-      </c>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="2" t="s">
         <v>31</v>
       </c>
@@ -3285,12 +3232,10 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="33">
-        <v>0</v>
-      </c>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="28" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -3308,12 +3253,10 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="33">
-        <v>4</v>
-      </c>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
@@ -3329,12 +3272,10 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -3349,12 +3290,10 @@
       <c r="E26" s="23">
         <v>4</v>
       </c>
-      <c r="G26" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>543</v>
       </c>
@@ -3367,12 +3306,10 @@
       <c r="E27" s="23">
         <v>0</v>
       </c>
-      <c r="G27" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="G27" s="26"/>
+    </row>
+    <row r="28" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="29"/>
       <c r="B28" s="2" t="s">
         <v>544</v>
       </c>
@@ -3385,9 +3322,7 @@
       <c r="E28" s="23">
         <v>4</v>
       </c>
-      <c r="G28" s="33">
-        <v>0</v>
-      </c>
+      <c r="G28" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3418,7 +3353,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3437,12 +3372,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>362</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -3465,7 +3400,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>364</v>
       </c>
@@ -3486,7 +3421,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>365</v>
       </c>
@@ -3507,7 +3442,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>366</v>
       </c>
@@ -3523,12 +3458,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>367</v>
       </c>
@@ -3544,12 +3479,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>368</v>
       </c>
@@ -3565,12 +3500,12 @@
       <c r="F7">
         <v>2</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>369</v>
       </c>
@@ -3586,12 +3521,12 @@
       <c r="F8">
         <v>2</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>370</v>
       </c>
@@ -3607,12 +3542,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>371</v>
       </c>
@@ -3628,12 +3563,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>372</v>
       </c>
@@ -3649,12 +3584,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>373</v>
       </c>
@@ -3670,12 +3605,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>374</v>
       </c>
@@ -3691,12 +3626,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>375</v>
       </c>
@@ -3712,12 +3647,12 @@
       <c r="F14">
         <v>2</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>376</v>
       </c>
@@ -3733,12 +3668,12 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>377</v>
       </c>
@@ -3754,12 +3689,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>378</v>
       </c>
@@ -3775,12 +3710,12 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>379</v>
       </c>
@@ -3796,12 +3731,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>380</v>
       </c>
@@ -3817,12 +3752,12 @@
       <c r="F19">
         <v>2</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="32" t="s">
         <v>381</v>
       </c>
       <c r="B20" s="21" t="s">
@@ -3840,12 +3775,12 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>383</v>
       </c>
@@ -3861,12 +3796,12 @@
       <c r="F21">
         <v>0</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>384</v>
       </c>
@@ -3882,12 +3817,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>385</v>
       </c>
@@ -3903,12 +3838,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>386</v>
       </c>
@@ -3924,12 +3859,12 @@
       <c r="F24">
         <v>2</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>387</v>
       </c>
@@ -3945,12 +3880,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -3968,12 +3903,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>389</v>
       </c>
@@ -3989,12 +3924,12 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
         <v>390</v>
       </c>
@@ -4010,12 +3945,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>391</v>
       </c>
@@ -4031,12 +3966,12 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="21" t="s">
         <v>392</v>
       </c>
@@ -4052,12 +3987,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>393</v>
       </c>
@@ -4073,12 +4008,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>394</v>
       </c>
@@ -4094,7 +4029,7 @@
       <c r="F32">
         <v>0</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>1</v>
       </c>
     </row>
@@ -4124,7 +4059,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -4143,12 +4078,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>395</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -4171,7 +4106,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>397</v>
       </c>
@@ -4192,7 +4127,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>398</v>
       </c>
@@ -4213,7 +4148,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>399</v>
       </c>
@@ -4229,12 +4164,12 @@
       <c r="F5">
         <v>8</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>400</v>
       </c>
@@ -4250,12 +4185,12 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>401</v>
       </c>
@@ -4271,12 +4206,12 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>402</v>
       </c>
@@ -4292,12 +4227,12 @@
       <c r="F8">
         <v>5</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>403</v>
       </c>
@@ -4313,12 +4248,12 @@
       <c r="F9">
         <v>4</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>404</v>
       </c>
@@ -4334,12 +4269,12 @@
       <c r="F10">
         <v>4</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>405</v>
       </c>
@@ -4355,12 +4290,12 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>406</v>
       </c>
@@ -4376,12 +4311,12 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>407</v>
       </c>
@@ -4397,12 +4332,12 @@
       <c r="F13">
         <v>5</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>408</v>
       </c>
@@ -4418,12 +4353,12 @@
       <c r="F14">
         <v>5</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>409</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -4441,12 +4376,12 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>411</v>
       </c>
@@ -4462,12 +4397,12 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>412</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -4485,12 +4420,12 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>414</v>
       </c>
@@ -4506,12 +4441,12 @@
       <c r="F18">
         <v>5</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="32" t="s">
         <v>415</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -4529,12 +4464,12 @@
       <c r="F19">
         <v>4</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>417</v>
       </c>
@@ -4550,12 +4485,12 @@
       <c r="F20">
         <v>5</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>418</v>
       </c>
@@ -4571,12 +4506,12 @@
       <c r="F21">
         <v>4</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>419</v>
       </c>
@@ -4592,12 +4527,12 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>420</v>
       </c>
@@ -4613,12 +4548,12 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>421</v>
       </c>
@@ -4634,12 +4569,12 @@
       <c r="F24">
         <v>5</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>422</v>
       </c>
@@ -4655,12 +4590,12 @@
       <c r="F25">
         <v>5</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>423</v>
       </c>
@@ -4676,12 +4611,12 @@
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>424</v>
       </c>
@@ -4697,12 +4632,12 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>425</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -4720,12 +4655,12 @@
       <c r="F28">
         <v>5</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>427</v>
       </c>
@@ -4741,12 +4676,12 @@
       <c r="F29">
         <v>8</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="21" t="s">
         <v>428</v>
       </c>
@@ -4762,12 +4697,12 @@
       <c r="F30">
         <v>8</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="28" t="s">
         <v>429</v>
       </c>
       <c r="B31" s="21" t="s">
@@ -4785,12 +4720,12 @@
       <c r="F31">
         <v>8</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>431</v>
       </c>
@@ -4806,12 +4741,12 @@
       <c r="F32">
         <v>4</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="32" t="s">
         <v>432</v>
       </c>
       <c r="B33" s="21" t="s">
@@ -4829,12 +4764,12 @@
       <c r="F33">
         <v>8</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="21" t="s">
         <v>434</v>
       </c>
@@ -4850,12 +4785,12 @@
       <c r="F34">
         <v>5</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="32" t="s">
         <v>435</v>
       </c>
       <c r="B35" s="21" t="s">
@@ -4873,12 +4808,12 @@
       <c r="F35">
         <v>8</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="21" t="s">
         <v>437</v>
       </c>
@@ -4894,12 +4829,12 @@
       <c r="F36">
         <v>5</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="21" t="s">
         <v>438</v>
       </c>
@@ -4915,12 +4850,12 @@
       <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="21" t="s">
         <v>439</v>
       </c>
@@ -4936,12 +4871,12 @@
       <c r="F38">
         <v>4</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="32" t="s">
         <v>440</v>
       </c>
       <c r="B39" s="21" t="s">
@@ -4959,12 +4894,12 @@
       <c r="F39">
         <v>4</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="21" t="s">
         <v>442</v>
       </c>
@@ -4980,12 +4915,12 @@
       <c r="F40">
         <v>5</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B41" s="21" t="s">
@@ -5003,12 +4938,12 @@
       <c r="F41">
         <v>4</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="21" t="s">
         <v>444</v>
       </c>
@@ -5024,12 +4959,12 @@
       <c r="F42">
         <v>5</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="21" t="s">
         <v>445</v>
       </c>
@@ -5045,12 +4980,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="21" t="s">
         <v>446</v>
       </c>
@@ -5066,12 +5001,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="21" t="s">
         <v>447</v>
       </c>
@@ -5087,12 +5022,12 @@
       <c r="F45">
         <v>8</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="21" t="s">
         <v>448</v>
       </c>
@@ -5108,12 +5043,12 @@
       <c r="F46">
         <v>4</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="21" t="s">
         <v>449</v>
       </c>
@@ -5129,12 +5064,12 @@
       <c r="F47">
         <v>8</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="21" t="s">
         <v>450</v>
       </c>
@@ -5150,12 +5085,12 @@
       <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="21" t="s">
         <v>451</v>
       </c>
@@ -5171,12 +5106,12 @@
       <c r="F49">
         <v>5</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="21" t="s">
         <v>452</v>
       </c>
@@ -5192,12 +5127,12 @@
       <c r="F50">
         <v>4</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="21" t="s">
         <v>453</v>
       </c>
@@ -5213,12 +5148,12 @@
       <c r="F51">
         <v>4</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="21" t="s">
         <v>454</v>
       </c>
@@ -5234,12 +5169,12 @@
       <c r="F52">
         <v>5</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="21" t="s">
         <v>455</v>
       </c>
@@ -5255,12 +5190,12 @@
       <c r="F53">
         <v>4</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="21" t="s">
         <v>456</v>
       </c>
@@ -5276,12 +5211,12 @@
       <c r="F54">
         <v>8</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="21" t="s">
         <v>457</v>
       </c>
@@ -5297,12 +5232,12 @@
       <c r="F55">
         <v>5</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="27"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="21" t="s">
         <v>458</v>
       </c>
@@ -5318,12 +5253,12 @@
       <c r="F56">
         <v>5</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G56" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="27"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="21" t="s">
         <v>459</v>
       </c>
@@ -5339,12 +5274,12 @@
       <c r="F57">
         <v>8</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="27"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="21" t="s">
         <v>460</v>
       </c>
@@ -5360,12 +5295,12 @@
       <c r="F58">
         <v>8</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="27"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="21" t="s">
         <v>461</v>
       </c>
@@ -5381,12 +5316,12 @@
       <c r="F59">
         <v>4</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="27"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="21" t="s">
         <v>462</v>
       </c>
@@ -5402,12 +5337,12 @@
       <c r="F60">
         <v>8</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="27"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="21" t="s">
         <v>463</v>
       </c>
@@ -5423,12 +5358,12 @@
       <c r="F61">
         <v>4</v>
       </c>
-      <c r="G61" s="33">
+      <c r="G61" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="27"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="21" t="s">
         <v>464</v>
       </c>
@@ -5444,12 +5379,12 @@
       <c r="F62">
         <v>5</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="27"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="21" t="s">
         <v>465</v>
       </c>
@@ -5465,12 +5400,12 @@
       <c r="F63">
         <v>4</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="21" t="s">
         <v>466</v>
       </c>
@@ -5486,12 +5421,12 @@
       <c r="F64">
         <v>5</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="21" t="s">
         <v>467</v>
       </c>
@@ -5507,12 +5442,12 @@
       <c r="F65">
         <v>8</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G65" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="21" t="s">
         <v>468</v>
       </c>
@@ -5528,12 +5463,12 @@
       <c r="F66">
         <v>8</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="26">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="27"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="21" t="s">
         <v>469</v>
       </c>
@@ -5549,12 +5484,12 @@
       <c r="F67">
         <v>4</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G67" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="27"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="21" t="s">
         <v>470</v>
       </c>
@@ -5570,12 +5505,12 @@
       <c r="F68">
         <v>4</v>
       </c>
-      <c r="G68" s="33">
+      <c r="G68" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="27"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="21" t="s">
         <v>471</v>
       </c>
@@ -5591,12 +5526,12 @@
       <c r="F69">
         <v>4</v>
       </c>
-      <c r="G69" s="33">
+      <c r="G69" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="27"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="21" t="s">
         <v>472</v>
       </c>
@@ -5612,12 +5547,12 @@
       <c r="F70">
         <v>8</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="26">
         <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="27"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="21" t="s">
         <v>473</v>
       </c>
@@ -5633,12 +5568,12 @@
       <c r="F71">
         <v>4</v>
       </c>
-      <c r="G71" s="33">
+      <c r="G71" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="27"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="21" t="s">
         <v>474</v>
       </c>
@@ -5654,12 +5589,12 @@
       <c r="F72">
         <v>8</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G72" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="27"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="21" t="s">
         <v>475</v>
       </c>
@@ -5675,7 +5610,7 @@
       <c r="F73">
         <v>5</v>
       </c>
-      <c r="G73" s="33">
+      <c r="G73" s="26">
         <v>4</v>
       </c>
     </row>
@@ -5712,7 +5647,7 @@
     <col min="10" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5731,12 +5666,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>476</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -5759,7 +5694,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>478</v>
       </c>
@@ -5780,7 +5715,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>479</v>
       </c>
@@ -5801,7 +5736,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>480</v>
       </c>
@@ -5817,12 +5752,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>481</v>
       </c>
@@ -5838,12 +5773,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>482</v>
       </c>
@@ -5859,12 +5794,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>483</v>
       </c>
@@ -5880,12 +5815,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>484</v>
       </c>
@@ -5901,12 +5836,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>485</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -5924,12 +5859,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>487</v>
       </c>
@@ -5945,12 +5880,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>488</v>
       </c>
@@ -5966,12 +5901,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="32" t="s">
         <v>489</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -5989,12 +5924,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>491</v>
       </c>
@@ -6010,12 +5945,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="32" t="s">
         <v>492</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -6033,12 +5968,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>494</v>
       </c>
@@ -6054,12 +5989,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -6077,12 +6012,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>496</v>
       </c>
@@ -6098,12 +6033,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>497</v>
       </c>
@@ -6119,12 +6054,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>498</v>
       </c>
@@ -6140,7 +6075,7 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
@@ -6172,7 +6107,7 @@
     <col min="9" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6191,12 +6126,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>499</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6219,7 +6154,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="21" t="s">
         <v>501</v>
       </c>
@@ -6240,7 +6175,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>502</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -6263,7 +6198,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="21" t="s">
         <v>504</v>
       </c>
@@ -6284,7 +6219,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="21" t="s">
         <v>505</v>
       </c>
@@ -6305,7 +6240,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="21" t="s">
         <v>506</v>
       </c>
@@ -6326,7 +6261,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="21" t="s">
         <v>507</v>
       </c>
@@ -6347,7 +6282,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="21" t="s">
         <v>508</v>
       </c>
@@ -6368,7 +6303,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="21" t="s">
         <v>509</v>
       </c>
@@ -6389,7 +6324,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="21" t="s">
         <v>510</v>
       </c>
@@ -6410,7 +6345,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="21" t="s">
         <v>511</v>
       </c>
@@ -6431,7 +6366,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="21" t="s">
         <v>512</v>
       </c>
@@ -6452,7 +6387,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>513</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -6475,7 +6410,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="31"/>
       <c r="B15" s="21" t="s">
         <v>515</v>
       </c>
@@ -6496,7 +6431,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -6519,7 +6454,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="29"/>
+      <c r="A17" s="31"/>
       <c r="B17" s="21" t="s">
         <v>517</v>
       </c>
@@ -6540,7 +6475,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="29"/>
+      <c r="A18" s="31"/>
       <c r="B18" s="21" t="s">
         <v>518</v>
       </c>
@@ -6561,7 +6496,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="21" t="s">
         <v>519</v>
       </c>
@@ -6582,7 +6517,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="21" t="s">
         <v>520</v>
       </c>
@@ -6603,7 +6538,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="21" t="s">
         <v>521</v>
       </c>
@@ -6624,7 +6559,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="31"/>
       <c r="B22" s="21" t="s">
         <v>522</v>
       </c>
@@ -6671,7 +6606,7 @@
     <col min="8" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -6690,12 +6625,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>523</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -6718,7 +6653,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>525</v>
       </c>
@@ -6739,7 +6674,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>526</v>
       </c>
@@ -6760,7 +6695,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="32" t="s">
         <v>527</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -6783,7 +6718,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>529</v>
       </c>
@@ -6804,7 +6739,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>530</v>
       </c>
@@ -6825,7 +6760,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>531</v>
       </c>
@@ -6846,7 +6781,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>532</v>
       </c>
@@ -6867,7 +6802,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>533</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -6890,7 +6825,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>535</v>
       </c>
@@ -6911,7 +6846,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -6934,7 +6869,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>537</v>
       </c>
@@ -6955,7 +6890,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>538</v>
       </c>
@@ -6976,7 +6911,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>539</v>
       </c>
@@ -6997,7 +6932,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>540</v>
       </c>
@@ -7018,7 +6953,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>541</v>
       </c>
@@ -7063,7 +6998,7 @@
     <col min="2" max="2" width="106.83203125" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7087,7 +7022,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7110,7 +7045,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
+      <c r="A3" s="31"/>
       <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
@@ -7131,7 +7066,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -7154,7 +7089,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -7175,7 +7110,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="30" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -7198,7 +7133,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="21" t="s">
         <v>43</v>
       </c>
@@ -7219,7 +7154,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
@@ -7240,7 +7175,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="30" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -7263,7 +7198,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="21" t="s">
         <v>46</v>
       </c>
@@ -7284,7 +7219,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="21" t="s">
         <v>47</v>
       </c>
@@ -7305,7 +7240,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
@@ -7353,7 +7288,7 @@
     <col min="12" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -7377,7 +7312,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7400,7 +7335,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>51</v>
       </c>
@@ -7421,7 +7356,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>52</v>
       </c>
@@ -7442,7 +7377,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>53</v>
       </c>
@@ -7458,12 +7393,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>54</v>
       </c>
@@ -7479,12 +7414,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>55</v>
       </c>
@@ -7500,12 +7435,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>56</v>
       </c>
@@ -7521,12 +7456,12 @@
       <c r="F8">
         <v>4</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>57</v>
       </c>
@@ -7542,12 +7477,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>58</v>
       </c>
@@ -7563,12 +7498,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>59</v>
       </c>
@@ -7584,12 +7519,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>60</v>
       </c>
@@ -7605,12 +7540,12 @@
       <c r="F12">
         <v>4</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>61</v>
       </c>
@@ -7626,12 +7561,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>62</v>
       </c>
@@ -7647,12 +7582,12 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>63</v>
       </c>
@@ -7668,12 +7603,12 @@
       <c r="F15">
         <v>4</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>64</v>
       </c>
@@ -7689,12 +7624,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>65</v>
       </c>
@@ -7710,12 +7645,12 @@
       <c r="F17">
         <v>4</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>66</v>
       </c>
@@ -7731,12 +7666,12 @@
       <c r="F18">
         <v>4</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>67</v>
       </c>
@@ -7752,12 +7687,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>68</v>
       </c>
@@ -7773,12 +7708,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>69</v>
       </c>
@@ -7794,12 +7729,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>70</v>
       </c>
@@ -7815,12 +7750,12 @@
       <c r="F22">
         <v>4</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>71</v>
       </c>
@@ -7836,12 +7771,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>72</v>
       </c>
@@ -7857,12 +7792,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>73</v>
       </c>
@@ -7878,12 +7813,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>74</v>
       </c>
@@ -7899,12 +7834,12 @@
       <c r="F26">
         <v>4</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="2" t="s">
         <v>75</v>
       </c>
@@ -7920,12 +7855,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -7943,12 +7878,12 @@
       <c r="F28">
         <v>4</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7964,12 +7899,12 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="28" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -7987,12 +7922,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>81</v>
       </c>
@@ -8008,12 +7943,12 @@
       <c r="F31">
         <v>4</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="2" t="s">
         <v>82</v>
       </c>
@@ -8029,12 +7964,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="28" t="s">
         <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -8052,12 +7987,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="21" t="s">
         <v>85</v>
       </c>
@@ -8073,12 +8008,12 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="21" t="s">
         <v>86</v>
       </c>
@@ -8094,12 +8029,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="21" t="s">
         <v>87</v>
       </c>
@@ -8115,12 +8050,12 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
@@ -8136,12 +8071,12 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="28" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -8159,12 +8094,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="21" t="s">
         <v>90</v>
       </c>
@@ -8180,12 +8115,12 @@
       <c r="F39">
         <v>1</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="2" t="s">
         <v>91</v>
       </c>
@@ -8201,7 +8136,7 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>3</v>
       </c>
     </row>
@@ -8234,7 +8169,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -8253,12 +8188,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>92</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -8281,7 +8216,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>94</v>
       </c>
@@ -8302,7 +8237,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="32" t="s">
         <v>95</v>
       </c>
       <c r="B4" s="21" t="s">
@@ -8325,7 +8260,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>97</v>
       </c>
@@ -8341,12 +8276,12 @@
       <c r="F5">
         <v>5</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>98</v>
       </c>
@@ -8362,12 +8297,12 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>99</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -8385,12 +8320,12 @@
       <c r="F7">
         <v>5</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>101</v>
       </c>
@@ -8406,12 +8341,12 @@
       <c r="F8">
         <v>6</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>102</v>
       </c>
@@ -8427,12 +8362,12 @@
       <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>103</v>
       </c>
@@ -8448,12 +8383,12 @@
       <c r="F10">
         <v>5</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>104</v>
       </c>
@@ -8469,12 +8404,12 @@
       <c r="F11">
         <v>5</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>105</v>
       </c>
@@ -8490,12 +8425,12 @@
       <c r="F12">
         <v>6</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>106</v>
       </c>
@@ -8511,12 +8446,12 @@
       <c r="F13">
         <v>6</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>107</v>
       </c>
@@ -8532,12 +8467,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>108</v>
       </c>
@@ -8553,12 +8488,12 @@
       <c r="F15">
         <v>5</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>109</v>
       </c>
@@ -8574,12 +8509,12 @@
       <c r="F16">
         <v>5</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>110</v>
       </c>
@@ -8595,12 +8530,12 @@
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>111</v>
       </c>
@@ -8616,12 +8551,12 @@
       <c r="F18">
         <v>6</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>112</v>
       </c>
@@ -8637,12 +8572,12 @@
       <c r="F19">
         <v>6</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>113</v>
       </c>
@@ -8658,12 +8593,12 @@
       <c r="F20">
         <v>6</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>114</v>
       </c>
@@ -8679,12 +8614,12 @@
       <c r="F21">
         <v>5</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>115</v>
       </c>
@@ -8700,12 +8635,12 @@
       <c r="F22">
         <v>5</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>116</v>
       </c>
@@ -8721,12 +8656,12 @@
       <c r="F23">
         <v>5</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="32" t="s">
         <v>117</v>
       </c>
       <c r="B24" s="21" t="s">
@@ -8744,12 +8679,12 @@
       <c r="F24">
         <v>6</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>119</v>
       </c>
@@ -8765,12 +8700,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="32" t="s">
         <v>120</v>
       </c>
       <c r="B26" s="21" t="s">
@@ -8788,12 +8723,12 @@
       <c r="F26">
         <v>6</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>122</v>
       </c>
@@ -8809,12 +8744,12 @@
       <c r="F27">
         <v>6</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="32" t="s">
         <v>123</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -8832,12 +8767,12 @@
       <c r="F28">
         <v>6</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>125</v>
       </c>
@@ -8853,12 +8788,12 @@
       <c r="F29">
         <v>5</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -8876,12 +8811,12 @@
       <c r="F30">
         <v>5</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>127</v>
       </c>
@@ -8897,12 +8832,12 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>128</v>
       </c>
@@ -8918,12 +8853,12 @@
       <c r="F32">
         <v>6</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="21" t="s">
         <v>129</v>
       </c>
@@ -8939,12 +8874,12 @@
       <c r="F33">
         <v>5</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="21" t="s">
         <v>130</v>
       </c>
@@ -8960,12 +8895,12 @@
       <c r="F34">
         <v>5</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="21" t="s">
         <v>131</v>
       </c>
@@ -8981,12 +8916,12 @@
       <c r="F35">
         <v>5</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="27"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="21" t="s">
         <v>132</v>
       </c>
@@ -9002,12 +8937,12 @@
       <c r="F36">
         <v>6</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="21" t="s">
         <v>133</v>
       </c>
@@ -9023,12 +8958,12 @@
       <c r="F37">
         <v>5</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" s="21" t="s">
         <v>134</v>
       </c>
@@ -9044,12 +8979,12 @@
       <c r="F38">
         <v>6</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="21" t="s">
         <v>135</v>
       </c>
@@ -9065,12 +9000,12 @@
       <c r="F39">
         <v>6</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="21" t="s">
         <v>136</v>
       </c>
@@ -9086,12 +9021,12 @@
       <c r="F40">
         <v>6</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="21" t="s">
         <v>137</v>
       </c>
@@ -9107,12 +9042,12 @@
       <c r="F41">
         <v>6</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="21" t="s">
         <v>138</v>
       </c>
@@ -9128,12 +9063,12 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="21" t="s">
         <v>139</v>
       </c>
@@ -9149,12 +9084,12 @@
       <c r="F43">
         <v>5</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="21" t="s">
         <v>140</v>
       </c>
@@ -9170,12 +9105,12 @@
       <c r="F44">
         <v>5</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="21" t="s">
         <v>141</v>
       </c>
@@ -9191,12 +9126,12 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="21" t="s">
         <v>142</v>
       </c>
@@ -9212,12 +9147,12 @@
       <c r="F46">
         <v>6</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="21" t="s">
         <v>143</v>
       </c>
@@ -9233,12 +9168,12 @@
       <c r="F47">
         <v>5</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="21" t="s">
         <v>144</v>
       </c>
@@ -9254,7 +9189,7 @@
       <c r="F48">
         <v>5</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="26">
         <v>4</v>
       </c>
     </row>
@@ -9288,7 +9223,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -9307,12 +9242,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -9335,7 +9270,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>147</v>
       </c>
@@ -9356,7 +9291,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>148</v>
       </c>
@@ -9377,7 +9312,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>149</v>
       </c>
@@ -9393,12 +9328,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>150</v>
       </c>
@@ -9414,12 +9349,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>151</v>
       </c>
@@ -9435,12 +9370,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>152</v>
       </c>
@@ -9456,12 +9391,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>153</v>
       </c>
@@ -9477,12 +9412,12 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>154</v>
       </c>
@@ -9498,12 +9433,12 @@
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>155</v>
       </c>
@@ -9519,12 +9454,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>156</v>
       </c>
@@ -9540,12 +9475,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>157</v>
       </c>
@@ -9561,12 +9496,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>158</v>
       </c>
@@ -9582,12 +9517,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>159</v>
       </c>
@@ -9603,12 +9538,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>160</v>
       </c>
@@ -9624,12 +9559,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>161</v>
       </c>
@@ -9645,12 +9580,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>162</v>
       </c>
@@ -9666,12 +9601,12 @@
       <c r="F18">
         <v>1</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>163</v>
       </c>
@@ -9687,12 +9622,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>164</v>
       </c>
@@ -9708,12 +9643,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>165</v>
       </c>
@@ -9729,12 +9664,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>166</v>
       </c>
@@ -9750,12 +9685,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>167</v>
       </c>
@@ -9771,12 +9706,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>168</v>
       </c>
@@ -9792,12 +9727,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>169</v>
       </c>
@@ -9813,12 +9748,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>170</v>
       </c>
@@ -9834,12 +9769,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>171</v>
       </c>
@@ -9855,12 +9790,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
         <v>172</v>
       </c>
@@ -9876,12 +9811,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>173</v>
       </c>
@@ -9897,12 +9832,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="21" t="s">
         <v>174</v>
       </c>
@@ -9918,12 +9853,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>175</v>
       </c>
@@ -9939,12 +9874,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>176</v>
       </c>
@@ -9960,12 +9895,12 @@
       <c r="F32">
         <v>2</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="21" t="s">
         <v>177</v>
       </c>
@@ -9981,12 +9916,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="21" t="s">
         <v>178</v>
       </c>
@@ -10002,12 +9937,12 @@
       <c r="F34">
         <v>1</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="21" t="s">
         <v>179</v>
       </c>
@@ -10023,12 +9958,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="32" t="s">
         <v>180</v>
       </c>
       <c r="B36" s="21" t="s">
@@ -10046,12 +9981,12 @@
       <c r="F36">
         <v>1</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" s="21" t="s">
         <v>182</v>
       </c>
@@ -10067,12 +10002,12 @@
       <c r="F37">
         <v>1</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B38" s="21" t="s">
@@ -10090,12 +10025,12 @@
       <c r="F38">
         <v>1</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" s="21" t="s">
         <v>184</v>
       </c>
@@ -10111,12 +10046,12 @@
       <c r="F39">
         <v>2</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" s="21" t="s">
         <v>185</v>
       </c>
@@ -10132,12 +10067,12 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" s="21" t="s">
         <v>186</v>
       </c>
@@ -10153,12 +10088,12 @@
       <c r="F41">
         <v>1</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="21" t="s">
         <v>187</v>
       </c>
@@ -10174,12 +10109,12 @@
       <c r="F42">
         <v>1</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="21" t="s">
         <v>188</v>
       </c>
@@ -10195,12 +10130,12 @@
       <c r="F43">
         <v>1</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" s="21" t="s">
         <v>189</v>
       </c>
@@ -10216,12 +10151,12 @@
       <c r="F44">
         <v>1</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="27"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="21" t="s">
         <v>190</v>
       </c>
@@ -10237,12 +10172,12 @@
       <c r="F45">
         <v>1</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="21" t="s">
         <v>191</v>
       </c>
@@ -10258,12 +10193,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="27"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="21" t="s">
         <v>192</v>
       </c>
@@ -10279,12 +10214,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="21" t="s">
         <v>193</v>
       </c>
@@ -10300,12 +10235,12 @@
       <c r="F48">
         <v>2</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="21" t="s">
         <v>194</v>
       </c>
@@ -10321,12 +10256,12 @@
       <c r="F49">
         <v>2</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" s="21" t="s">
         <v>195</v>
       </c>
@@ -10342,12 +10277,12 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" s="21" t="s">
         <v>196</v>
       </c>
@@ -10363,12 +10298,12 @@
       <c r="F51">
         <v>1</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="21" t="s">
         <v>197</v>
       </c>
@@ -10384,7 +10319,7 @@
       <c r="F52">
         <v>1</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="26">
         <v>2</v>
       </c>
     </row>
@@ -10414,7 +10349,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -10433,12 +10368,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>198</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -10461,7 +10396,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="21" t="s">
         <v>200</v>
       </c>
@@ -10482,7 +10417,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
+      <c r="A4" s="34"/>
       <c r="B4" s="21" t="s">
         <v>201</v>
       </c>
@@ -10503,7 +10438,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="33" t="s">
         <v>202</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -10521,12 +10456,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="21" t="s">
         <v>204</v>
       </c>
@@ -10542,12 +10477,12 @@
       <c r="F6">
         <v>3</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="21" t="s">
         <v>205</v>
       </c>
@@ -10563,12 +10498,12 @@
       <c r="F7">
         <v>4</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>206</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -10586,12 +10521,12 @@
       <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="21" t="s">
         <v>208</v>
       </c>
@@ -10607,12 +10542,12 @@
       <c r="F9">
         <v>3</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="21" t="s">
         <v>209</v>
       </c>
@@ -10628,12 +10563,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="32"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="21" t="s">
         <v>210</v>
       </c>
@@ -10649,12 +10584,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="33" t="s">
         <v>211</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -10672,12 +10607,12 @@
       <c r="F12">
         <v>3</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="21" t="s">
         <v>213</v>
       </c>
@@ -10693,12 +10628,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="33" t="s">
         <v>214</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -10716,12 +10651,12 @@
       <c r="F14">
         <v>4</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="21" t="s">
         <v>216</v>
       </c>
@@ -10737,12 +10672,12 @@
       <c r="F15">
         <v>2</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="21" t="s">
         <v>217</v>
       </c>
@@ -10758,12 +10693,12 @@
       <c r="F16">
         <v>4</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="33" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -10781,12 +10716,12 @@
       <c r="F17">
         <v>3</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="32"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="21" t="s">
         <v>219</v>
       </c>
@@ -10802,12 +10737,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="21" t="s">
         <v>220</v>
       </c>
@@ -10823,12 +10758,12 @@
       <c r="F19">
         <v>3</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="21" t="s">
         <v>221</v>
       </c>
@@ -10844,12 +10779,12 @@
       <c r="F20">
         <v>2</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="21" t="s">
         <v>222</v>
       </c>
@@ -10865,12 +10800,12 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="21" t="s">
         <v>223</v>
       </c>
@@ -10886,12 +10821,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="21" t="s">
         <v>224</v>
       </c>
@@ -10907,12 +10842,12 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="21" t="s">
         <v>225</v>
       </c>
@@ -10928,12 +10863,12 @@
       <c r="F24">
         <v>3</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="21" t="s">
         <v>226</v>
       </c>
@@ -10949,12 +10884,12 @@
       <c r="F25">
         <v>2</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="32"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="21" t="s">
         <v>227</v>
       </c>
@@ -10970,12 +10905,12 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="32"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="21" t="s">
         <v>228</v>
       </c>
@@ -10991,12 +10926,12 @@
       <c r="F27">
         <v>4</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="32"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="21" t="s">
         <v>229</v>
       </c>
@@ -11012,12 +10947,12 @@
       <c r="F28">
         <v>2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="32"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="21" t="s">
         <v>230</v>
       </c>
@@ -11033,12 +10968,12 @@
       <c r="F29">
         <v>4</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="32"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="21" t="s">
         <v>231</v>
       </c>
@@ -11054,12 +10989,12 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="32"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="21" t="s">
         <v>232</v>
       </c>
@@ -11075,12 +11010,12 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="32"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="21" t="s">
         <v>233</v>
       </c>
@@ -11096,12 +11031,12 @@
       <c r="F32">
         <v>3</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="21" t="s">
         <v>234</v>
       </c>
@@ -11117,12 +11052,12 @@
       <c r="F33">
         <v>3</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="21" t="s">
         <v>235</v>
       </c>
@@ -11138,12 +11073,12 @@
       <c r="F34">
         <v>4</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="21" t="s">
         <v>236</v>
       </c>
@@ -11159,12 +11094,12 @@
       <c r="F35">
         <v>3</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
+      <c r="A36" s="34"/>
       <c r="B36" s="21" t="s">
         <v>237</v>
       </c>
@@ -11180,7 +11115,7 @@
       <c r="F36">
         <v>4</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>4</v>
       </c>
     </row>
@@ -11213,7 +11148,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11232,12 +11167,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>238</v>
       </c>
       <c r="B2" t="s">
@@ -11260,7 +11195,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" t="s">
         <v>240</v>
       </c>
@@ -11281,7 +11216,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
         <v>241</v>
       </c>
@@ -11302,7 +11237,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" t="s">
         <v>242</v>
       </c>
@@ -11318,12 +11253,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" t="s">
         <v>243</v>
       </c>
@@ -11339,12 +11274,12 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" t="s">
         <v>244</v>
       </c>
@@ -11360,12 +11295,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" t="s">
         <v>245</v>
       </c>
@@ -11381,12 +11316,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" t="s">
         <v>246</v>
       </c>
@@ -11402,12 +11337,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" t="s">
         <v>247</v>
       </c>
@@ -11423,12 +11358,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" t="s">
         <v>248</v>
       </c>
@@ -11444,12 +11379,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" t="s">
         <v>249</v>
       </c>
@@ -11465,12 +11400,12 @@
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" t="s">
         <v>250</v>
       </c>
@@ -11486,12 +11421,12 @@
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" t="s">
         <v>251</v>
       </c>
@@ -11507,12 +11442,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" t="s">
         <v>252</v>
       </c>
@@ -11528,12 +11463,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" t="s">
         <v>253</v>
       </c>
@@ -11549,12 +11484,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" t="s">
         <v>254</v>
       </c>
@@ -11570,12 +11505,12 @@
       <c r="F17">
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" t="s">
         <v>255</v>
       </c>
@@ -11591,12 +11526,12 @@
       <c r="F18">
         <v>0</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" t="s">
         <v>256</v>
       </c>
@@ -11612,12 +11547,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" t="s">
         <v>257</v>
       </c>
@@ -11633,12 +11568,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" t="s">
         <v>258</v>
       </c>
@@ -11654,12 +11589,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" t="s">
         <v>259</v>
       </c>
@@ -11675,12 +11610,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" t="s">
         <v>260</v>
       </c>
@@ -11696,12 +11631,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" t="s">
         <v>261</v>
       </c>
@@ -11717,12 +11652,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" t="s">
         <v>262</v>
       </c>
@@ -11738,12 +11673,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" t="s">
         <v>263</v>
       </c>
@@ -11759,12 +11694,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" t="s">
         <v>264</v>
       </c>
@@ -11780,12 +11715,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" t="s">
         <v>265</v>
       </c>
@@ -11801,12 +11736,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" t="s">
         <v>266</v>
       </c>
@@ -11822,12 +11757,12 @@
       <c r="F29">
         <v>0</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" t="s">
         <v>267</v>
       </c>
@@ -11843,12 +11778,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" t="s">
         <v>268</v>
       </c>
@@ -11864,12 +11799,12 @@
       <c r="F31">
         <v>2</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" t="s">
         <v>269</v>
       </c>
@@ -11885,12 +11820,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" t="s">
         <v>270</v>
       </c>
@@ -11906,12 +11841,12 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="27"/>
+      <c r="A34" s="29"/>
       <c r="B34" t="s">
         <v>271</v>
       </c>
@@ -11927,12 +11862,12 @@
       <c r="F34">
         <v>2</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="27"/>
+      <c r="A35" s="29"/>
       <c r="B35" t="s">
         <v>272</v>
       </c>
@@ -11948,12 +11883,12 @@
       <c r="F35">
         <v>1</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="32" t="s">
         <v>273</v>
       </c>
       <c r="B36" t="s">
@@ -11971,12 +11906,12 @@
       <c r="F36">
         <v>2</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="27"/>
+      <c r="A37" s="29"/>
       <c r="B37" t="s">
         <v>275</v>
       </c>
@@ -11992,12 +11927,12 @@
       <c r="F37">
         <v>0</v>
       </c>
-      <c r="G37" s="33">
+      <c r="G37" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="27"/>
+      <c r="A38" s="29"/>
       <c r="B38" t="s">
         <v>276</v>
       </c>
@@ -12013,12 +11948,12 @@
       <c r="F38">
         <v>0</v>
       </c>
-      <c r="G38" s="33">
+      <c r="G38" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="27"/>
+      <c r="A39" s="29"/>
       <c r="B39" t="s">
         <v>277</v>
       </c>
@@ -12034,12 +11969,12 @@
       <c r="F39">
         <v>0</v>
       </c>
-      <c r="G39" s="33">
+      <c r="G39" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="27"/>
+      <c r="A40" s="29"/>
       <c r="B40" t="s">
         <v>278</v>
       </c>
@@ -12055,12 +11990,12 @@
       <c r="F40">
         <v>1</v>
       </c>
-      <c r="G40" s="33">
+      <c r="G40" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="27"/>
+      <c r="A41" s="29"/>
       <c r="B41" t="s">
         <v>279</v>
       </c>
@@ -12076,12 +12011,12 @@
       <c r="F41">
         <v>0</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="27"/>
+      <c r="A42" s="29"/>
       <c r="B42" t="s">
         <v>280</v>
       </c>
@@ -12097,12 +12032,12 @@
       <c r="F42">
         <v>0</v>
       </c>
-      <c r="G42" s="33">
+      <c r="G42" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="27"/>
+      <c r="A43" s="29"/>
       <c r="B43" t="s">
         <v>281</v>
       </c>
@@ -12118,12 +12053,12 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="33">
+      <c r="G43" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="27"/>
+      <c r="A44" s="29"/>
       <c r="B44" t="s">
         <v>282</v>
       </c>
@@ -12139,12 +12074,12 @@
       <c r="F44">
         <v>2</v>
       </c>
-      <c r="G44" s="33">
+      <c r="G44" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="32" t="s">
         <v>283</v>
       </c>
       <c r="B45" t="s">
@@ -12162,12 +12097,12 @@
       <c r="F45">
         <v>0</v>
       </c>
-      <c r="G45" s="33">
+      <c r="G45" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="27"/>
+      <c r="A46" s="29"/>
       <c r="B46" t="s">
         <v>285</v>
       </c>
@@ -12183,12 +12118,12 @@
       <c r="F46">
         <v>1</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B47" t="s">
@@ -12206,12 +12141,12 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="27"/>
+      <c r="A48" s="29"/>
       <c r="B48" t="s">
         <v>287</v>
       </c>
@@ -12227,12 +12162,12 @@
       <c r="F48">
         <v>1</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="27"/>
+      <c r="A49" s="29"/>
       <c r="B49" t="s">
         <v>288</v>
       </c>
@@ -12248,12 +12183,12 @@
       <c r="F49">
         <v>0</v>
       </c>
-      <c r="G49" s="33">
+      <c r="G49" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="27"/>
+      <c r="A50" s="29"/>
       <c r="B50" t="s">
         <v>289</v>
       </c>
@@ -12269,12 +12204,12 @@
       <c r="F50">
         <v>0</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="27"/>
+      <c r="A51" s="29"/>
       <c r="B51" t="s">
         <v>290</v>
       </c>
@@ -12290,12 +12225,12 @@
       <c r="F51">
         <v>0</v>
       </c>
-      <c r="G51" s="33">
+      <c r="G51" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="27"/>
+      <c r="A52" s="29"/>
       <c r="B52" t="s">
         <v>291</v>
       </c>
@@ -12311,12 +12246,12 @@
       <c r="F52">
         <v>0</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="27"/>
+      <c r="A53" s="29"/>
       <c r="B53" t="s">
         <v>292</v>
       </c>
@@ -12332,12 +12267,12 @@
       <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="27"/>
+      <c r="A54" s="29"/>
       <c r="B54" t="s">
         <v>293</v>
       </c>
@@ -12353,12 +12288,12 @@
       <c r="F54">
         <v>1</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="27"/>
+      <c r="A55" s="29"/>
       <c r="B55" t="s">
         <v>294</v>
       </c>
@@ -12374,7 +12309,7 @@
       <c r="F55">
         <v>0</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="26">
         <v>2</v>
       </c>
     </row>
@@ -12405,7 +12340,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -12424,12 +12359,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>295</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -12452,7 +12387,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>297</v>
       </c>
@@ -12473,7 +12408,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>298</v>
       </c>
@@ -12494,7 +12429,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>299</v>
       </c>
@@ -12510,12 +12445,12 @@
       <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>300</v>
       </c>
@@ -12531,12 +12466,12 @@
       <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="32" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -12554,12 +12489,12 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>303</v>
       </c>
@@ -12575,12 +12510,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>304</v>
       </c>
@@ -12596,12 +12531,12 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="32" t="s">
         <v>305</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -12619,12 +12554,12 @@
       <c r="F10">
         <v>2</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>307</v>
       </c>
@@ -12640,12 +12575,12 @@
       <c r="F11">
         <v>1</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>308</v>
       </c>
@@ -12661,12 +12596,12 @@
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>309</v>
       </c>
@@ -12682,12 +12617,12 @@
       <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="21" t="s">
         <v>310</v>
       </c>
@@ -12703,12 +12638,12 @@
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>311</v>
       </c>
@@ -12724,12 +12659,12 @@
       <c r="F15">
         <v>1</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="21" t="s">
         <v>312</v>
       </c>
@@ -12745,12 +12680,12 @@
       <c r="F16">
         <v>1</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>313</v>
       </c>
@@ -12766,12 +12701,12 @@
       <c r="F17">
         <v>1</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>314</v>
       </c>
@@ -12787,12 +12722,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>315</v>
       </c>
@@ -12808,12 +12743,12 @@
       <c r="F19">
         <v>1</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>316</v>
       </c>
@@ -12829,12 +12764,12 @@
       <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>317</v>
       </c>
@@ -12850,12 +12785,12 @@
       <c r="F21">
         <v>1</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>318</v>
       </c>
@@ -12871,12 +12806,12 @@
       <c r="F22">
         <v>1</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>319</v>
       </c>
@@ -12892,12 +12827,12 @@
       <c r="F23">
         <v>1</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>320</v>
       </c>
@@ -12913,12 +12848,12 @@
       <c r="F24">
         <v>1</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>321</v>
       </c>
@@ -12934,12 +12869,12 @@
       <c r="F25">
         <v>1</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>322</v>
       </c>
@@ -12955,12 +12890,12 @@
       <c r="F26">
         <v>1</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>323</v>
       </c>
@@ -12976,12 +12911,12 @@
       <c r="F27">
         <v>1</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
         <v>324</v>
       </c>
@@ -12997,12 +12932,12 @@
       <c r="F28">
         <v>1</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>325</v>
       </c>
@@ -13018,12 +12953,12 @@
       <c r="F29">
         <v>1</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="21" t="s">
@@ -13041,12 +12976,12 @@
       <c r="F30">
         <v>1</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>327</v>
       </c>
@@ -13062,12 +12997,12 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="27"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="21" t="s">
         <v>328</v>
       </c>
@@ -13083,12 +13018,12 @@
       <c r="F32">
         <v>1</v>
       </c>
-      <c r="G32" s="33">
+      <c r="G32" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="27"/>
+      <c r="A33" s="29"/>
       <c r="B33" s="21" t="s">
         <v>329</v>
       </c>
@@ -13104,7 +13039,7 @@
       <c r="F33">
         <v>1</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="26">
         <v>1</v>
       </c>
     </row>
@@ -13135,7 +13070,7 @@
     <col min="11" max="16384" width="8.83203125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -13154,12 +13089,12 @@
       <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="27" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>330</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -13182,7 +13117,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="21" t="s">
         <v>332</v>
       </c>
@@ -13203,7 +13138,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="21" t="s">
         <v>333</v>
       </c>
@@ -13224,7 +13159,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="21" t="s">
         <v>334</v>
       </c>
@@ -13240,12 +13175,12 @@
       <c r="F5">
         <v>2</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="21" t="s">
         <v>335</v>
       </c>
@@ -13261,12 +13196,12 @@
       <c r="F6">
         <v>2</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="27"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="21" t="s">
         <v>336</v>
       </c>
@@ -13282,12 +13217,12 @@
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="27"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="21" t="s">
         <v>337</v>
       </c>
@@ -13303,12 +13238,12 @@
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="27"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="21" t="s">
         <v>338</v>
       </c>
@@ -13324,12 +13259,12 @@
       <c r="F9">
         <v>0</v>
       </c>
-      <c r="G9" s="33">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="27"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="21" t="s">
         <v>339</v>
       </c>
@@ -13345,12 +13280,12 @@
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="27"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="21" t="s">
         <v>340</v>
       </c>
@@ -13366,12 +13301,12 @@
       <c r="F11">
         <v>2</v>
       </c>
-      <c r="G11" s="33">
+      <c r="G11" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="27"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="21" t="s">
         <v>341</v>
       </c>
@@ -13387,12 +13322,12 @@
       <c r="F12">
         <v>2</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="21" t="s">
         <v>342</v>
       </c>
@@ -13408,12 +13343,12 @@
       <c r="F13">
         <v>2</v>
       </c>
-      <c r="G13" s="33">
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="32" t="s">
         <v>343</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -13431,12 +13366,12 @@
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14" s="33">
+      <c r="G14" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="21" t="s">
         <v>345</v>
       </c>
@@ -13452,12 +13387,12 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -13475,12 +13410,12 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16" s="33">
+      <c r="G16" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="27"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="21" t="s">
         <v>347</v>
       </c>
@@ -13496,12 +13431,12 @@
       <c r="F17">
         <v>2</v>
       </c>
-      <c r="G17" s="33">
+      <c r="G17" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="21" t="s">
         <v>348</v>
       </c>
@@ -13517,12 +13452,12 @@
       <c r="F18">
         <v>2</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="21" t="s">
         <v>349</v>
       </c>
@@ -13538,12 +13473,12 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" s="33">
+      <c r="G19" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="21" t="s">
         <v>350</v>
       </c>
@@ -13559,12 +13494,12 @@
       <c r="F20">
         <v>0</v>
       </c>
-      <c r="G20" s="33">
+      <c r="G20" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="21" t="s">
         <v>351</v>
       </c>
@@ -13580,12 +13515,12 @@
       <c r="F21">
         <v>2</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="21" t="s">
         <v>352</v>
       </c>
@@ -13601,12 +13536,12 @@
       <c r="F22">
         <v>2</v>
       </c>
-      <c r="G22" s="33">
+      <c r="G22" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="27"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="21" t="s">
         <v>353</v>
       </c>
@@ -13622,12 +13557,12 @@
       <c r="F23">
         <v>0</v>
       </c>
-      <c r="G23" s="33">
+      <c r="G23" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="27"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="21" t="s">
         <v>354</v>
       </c>
@@ -13643,12 +13578,12 @@
       <c r="F24">
         <v>0</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="21" t="s">
         <v>355</v>
       </c>
@@ -13664,12 +13599,12 @@
       <c r="F25">
         <v>0</v>
       </c>
-      <c r="G25" s="33">
+      <c r="G25" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="21" t="s">
         <v>356</v>
       </c>
@@ -13685,12 +13620,12 @@
       <c r="F26">
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="G26" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="27"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="21" t="s">
         <v>357</v>
       </c>
@@ -13706,12 +13641,12 @@
       <c r="F27">
         <v>2</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="21" t="s">
         <v>358</v>
       </c>
@@ -13727,12 +13662,12 @@
       <c r="F28">
         <v>0</v>
       </c>
-      <c r="G28" s="33">
+      <c r="G28" s="26">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="27"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="21" t="s">
         <v>359</v>
       </c>
@@ -13748,12 +13683,12 @@
       <c r="F29">
         <v>2</v>
       </c>
-      <c r="G29" s="33">
+      <c r="G29" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="27"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="21" t="s">
         <v>360</v>
       </c>
@@ -13769,12 +13704,12 @@
       <c r="F30">
         <v>0</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="26">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="21" t="s">
         <v>361</v>
       </c>
@@ -13790,7 +13725,7 @@
       <c r="F31">
         <v>0</v>
       </c>
-      <c r="G31" s="33">
+      <c r="G31" s="26">
         <v>1</v>
       </c>
     </row>
